--- a/sriramModel-nelson-melancholic-patientID_55-sims-cort-5-iterations.xlsx
+++ b/sriramModel-nelson-melancholic-patientID_55-sims-cort-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.893203142120825</v>
+        <v>9.887275832462977</v>
       </c>
       <c r="C2">
-        <v>9.893910056522147</v>
+        <v>9.855220883088196</v>
       </c>
       <c r="D2">
-        <v>9.881639918869816</v>
+        <v>9.863107031124478</v>
       </c>
       <c r="E2">
-        <v>9.858724172756984</v>
+        <v>9.893682641286452</v>
       </c>
       <c r="F2">
-        <v>9.884364276618022</v>
+        <v>9.894998091663934</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.989045908317671</v>
+        <v>9.977540917235018</v>
       </c>
       <c r="C3">
-        <v>9.989979648549586</v>
+        <v>9.919590960876887</v>
       </c>
       <c r="D3">
-        <v>9.969827350366561</v>
+        <v>9.932511436837025</v>
       </c>
       <c r="E3">
-        <v>9.925040947477484</v>
+        <v>9.989769794922582</v>
       </c>
       <c r="F3">
-        <v>9.974048153514159</v>
+        <v>9.992092927988649</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.07788316821948</v>
+        <v>10.06113838724252</v>
       </c>
       <c r="C4">
-        <v>10.07859659822317</v>
+        <v>9.983066567938481</v>
       </c>
       <c r="D4">
-        <v>10.05463167469144</v>
+        <v>9.998253972065761</v>
       </c>
       <c r="E4">
-        <v>9.988990884229441</v>
+        <v>10.07863421898624</v>
       </c>
       <c r="F4">
-        <v>10.05919864630643</v>
+        <v>10.08167574896065</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.16024165484727</v>
+        <v>10.13858371110456</v>
       </c>
       <c r="C5">
-        <v>10.16031888590096</v>
+        <v>10.04579381965086</v>
       </c>
       <c r="D5">
-        <v>10.13630886585079</v>
+        <v>10.06056718772139</v>
       </c>
       <c r="E5">
-        <v>10.05080422596296</v>
+        <v>10.16081968552683</v>
       </c>
       <c r="F5">
-        <v>10.14014604760582</v>
+        <v>10.16430813994907</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.23662224977463</v>
+        <v>10.21036723149241</v>
       </c>
       <c r="C6">
-        <v>10.23567695019686</v>
+        <v>10.10790933874857</v>
       </c>
       <c r="D6">
-        <v>10.21510331917584</v>
+        <v>10.11967627708759</v>
       </c>
       <c r="E6">
-        <v>10.11070146627005</v>
+        <v>10.23684249836824</v>
       </c>
       <c r="F6">
-        <v>10.21720515063338</v>
+        <v>10.24052417113235</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.30750032975751</v>
+        <v>10.27695416671982</v>
       </c>
       <c r="C7">
-        <v>10.30517522244247</v>
+        <v>10.16954039412701</v>
       </c>
       <c r="D7">
-        <v>10.29124743089806</v>
+        <v>10.175798840153</v>
       </c>
       <c r="E7">
-        <v>10.16889371742149</v>
+        <v>10.3071930695816</v>
       </c>
       <c r="F7">
-        <v>10.29067637890686</v>
+        <v>10.31083100271585</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.37332781374656</v>
+        <v>10.33878675251968</v>
       </c>
       <c r="C8">
-        <v>10.36929309739059</v>
+        <v>10.23080557453653</v>
       </c>
       <c r="D8">
-        <v>10.36496220513492</v>
+        <v>10.22914528686556</v>
       </c>
       <c r="E8">
-        <v>10.22558307626712</v>
+        <v>10.37233734569378</v>
       </c>
       <c r="F8">
-        <v>10.36084599047474</v>
+        <v>10.37571097106349</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.43453411352147</v>
+        <v>10.39628530556237</v>
       </c>
       <c r="C9">
-        <v>10.42848627154093</v>
+        <v>10.29181510753314</v>
       </c>
       <c r="D9">
-        <v>10.43645809719439</v>
+        <v>10.27991921765736</v>
       </c>
       <c r="E9">
-        <v>10.28096286169294</v>
+        <v>10.43271794948675</v>
       </c>
       <c r="F9">
-        <v>10.42798692511627</v>
+        <v>10.43562253467296</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.49152715894847</v>
+        <v>10.44984905252181</v>
       </c>
       <c r="C10">
-        <v>10.48318796575804</v>
+        <v>10.35267118918445</v>
       </c>
       <c r="D10">
-        <v>10.50593541056828</v>
+        <v>10.3283175534591</v>
       </c>
       <c r="E10">
-        <v>10.33521786443917</v>
+        <v>10.48875534026288</v>
       </c>
       <c r="F10">
-        <v>10.49235931933327</v>
+        <v>10.49100146172976</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.54469464941649</v>
+        <v>10.49985722249571</v>
       </c>
       <c r="C11">
-        <v>10.53381001355727</v>
+        <v>10.41346834753108</v>
       </c>
       <c r="D11">
-        <v>10.5735846136414</v>
+        <v>10.3745307283787</v>
       </c>
       <c r="E11">
-        <v>10.38852456263518</v>
+        <v>10.54084888730571</v>
       </c>
       <c r="F11">
-        <v>10.55421122362272</v>
+        <v>10.54226199244517</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.59440484982287</v>
+        <v>10.5466701121169</v>
       </c>
       <c r="C12">
-        <v>10.58074387121794</v>
+        <v>10.47429375048374</v>
       </c>
       <c r="D12">
-        <v>10.639586720825</v>
+        <v>10.41874292305512</v>
       </c>
       <c r="E12">
-        <v>10.44105134830628</v>
+        <v>10.58937800628577</v>
       </c>
       <c r="F12">
-        <v>10.61377918626473</v>
+        <v>10.58979778648977</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.6410071399744</v>
+        <v>10.59063000663819</v>
       </c>
       <c r="C13">
-        <v>10.62436161689808</v>
+        <v>10.53522751270292</v>
       </c>
       <c r="D13">
-        <v>10.70411375048139</v>
+        <v>10.46113227977927</v>
       </c>
       <c r="E13">
-        <v>10.49295872985361</v>
+        <v>10.63470317921011</v>
       </c>
       <c r="F13">
-        <v>10.67128875193785</v>
+        <v>10.63398289780393</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.68483371819615</v>
+        <v>10.63206205055675</v>
       </c>
       <c r="C14">
-        <v>10.66501711441393</v>
+        <v>10.59634302690983</v>
       </c>
       <c r="D14">
-        <v>10.76732913847665</v>
+        <v>10.50187109575267</v>
       </c>
       <c r="E14">
-        <v>10.54439949400335</v>
+        <v>10.6771668670933</v>
       </c>
       <c r="F14">
-        <v>10.72695493828262</v>
+        <v>10.67517272352301</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.72620041264501</v>
+        <v>10.67127504371984</v>
       </c>
       <c r="C15">
-        <v>10.70304605203929</v>
+        <v>10.65770728765003</v>
       </c>
       <c r="D15">
-        <v>10.82938808310835</v>
+        <v>10.54112600881794</v>
       </c>
       <c r="E15">
-        <v>10.59551885108994</v>
+        <v>10.71709437328315</v>
       </c>
       <c r="F15">
-        <v>10.78098266639016</v>
+        <v>10.71370530025516</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.76540714737009</v>
+        <v>10.70856230834959</v>
       </c>
       <c r="C16">
-        <v>10.73876781861102</v>
+        <v>10.71938113142493</v>
       </c>
       <c r="D16">
-        <v>10.89043787567446</v>
+        <v>10.57905821391518</v>
       </c>
       <c r="E16">
-        <v>10.64645458516835</v>
+        <v>10.75479470154591</v>
       </c>
       <c r="F16">
-        <v>10.83356727001071</v>
+        <v>10.7499019313375</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.80273858611783</v>
+        <v>10.74420251379996</v>
       </c>
       <c r="C17">
-        <v>10.7724861472533</v>
+        <v>10.78141947377429</v>
       </c>
       <c r="D17">
-        <v>10.95061822688658</v>
+        <v>10.61582353881933</v>
       </c>
       <c r="E17">
-        <v>10.69733719339493</v>
+        <v>10.790561401497</v>
       </c>
       <c r="F17">
-        <v>10.88489484495952</v>
+        <v>10.78406792322769</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.83846505119514</v>
+        <v>10.77845990724181</v>
       </c>
       <c r="C18">
-        <v>10.80448970197733</v>
+        <v>10.84387157141241</v>
       </c>
       <c r="D18">
-        <v>11.01006158454588</v>
+        <v>10.65157269419594</v>
       </c>
       <c r="E18">
-        <v>10.7482900081498</v>
+        <v>10.82467333707984</v>
       </c>
       <c r="F18">
-        <v>10.93514282630973</v>
+        <v>10.81649335067543</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.87284331031007</v>
+        <v>10.81158559730454</v>
       </c>
       <c r="C19">
-        <v>10.83505267407853</v>
+        <v>10.90678127896803</v>
       </c>
       <c r="D19">
-        <v>11.06889347885019</v>
+        <v>10.68645143571963</v>
       </c>
       <c r="E19">
-        <v>10.79942932195264</v>
+        <v>10.85739542731531</v>
       </c>
       <c r="F19">
-        <v>10.98448017428984</v>
+        <v>10.84745383744527</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.90611723694368</v>
+        <v>10.84381818697945</v>
       </c>
       <c r="C20">
-        <v>10.86443553539111</v>
+        <v>10.97018728054036</v>
       </c>
       <c r="D20">
-        <v>11.12723279102227</v>
+        <v>10.72060065938857</v>
       </c>
       <c r="E20">
-        <v>10.85086447539315</v>
+        <v>10.88897927828877</v>
       </c>
       <c r="F20">
-        <v>11.03306799643294</v>
+        <v>10.8772112770717</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.93851838588683</v>
+        <v>10.87538420300445</v>
       </c>
       <c r="C21">
-        <v>10.8928858058484</v>
+        <v>11.03412333425543</v>
       </c>
       <c r="D21">
-        <v>11.18519176597907</v>
+        <v>10.75415669542773</v>
       </c>
       <c r="E21">
-        <v>10.90269795602059</v>
+        <v>10.91966386929326</v>
       </c>
       <c r="F21">
-        <v>11.08105980652547</v>
+        <v>10.90601451453479</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.97026658215522</v>
+        <v>10.90649860725552</v>
       </c>
       <c r="C22">
-        <v>10.92063871773768</v>
+        <v>11.09861847287256</v>
       </c>
       <c r="D22">
-        <v>11.24287664728477</v>
+        <v>10.78725134169586</v>
       </c>
       <c r="E22">
-        <v>10.9550254938824</v>
+        <v>10.94967618410518</v>
       </c>
       <c r="F22">
-        <v>11.12860185465836</v>
+        <v>10.93410001841755</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.00157051527269</v>
+        <v>10.93736538784819</v>
       </c>
       <c r="C23">
-        <v>10.94791779199666</v>
+        <v>11.16369722774774</v>
       </c>
       <c r="D23">
-        <v>11.30038786551196</v>
+        <v>10.82001205511352</v>
       </c>
       <c r="E23">
-        <v>11.00793614803876</v>
+        <v>10.97923181444589</v>
       </c>
       <c r="F23">
-        <v>11.1758334603669</v>
+        <v>10.96169246606059</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.03262828382385</v>
+        <v>10.96817816355628</v>
       </c>
       <c r="C24">
-        <v>10.97493537434947</v>
+        <v>11.22937982058468</v>
       </c>
       <c r="D24">
-        <v>11.35782020774449</v>
+        <v>10.85256204531268</v>
       </c>
       <c r="E24">
-        <v>11.06151238639062</v>
+        <v>11.00853551356133</v>
       </c>
       <c r="F24">
-        <v>11.22288726556679</v>
+        <v>10.98900533436108</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.06362786831198</v>
+        <v>10.9991206894159</v>
       </c>
       <c r="C25">
-        <v>11.00189317499378</v>
+        <v>11.29568233345786</v>
       </c>
       <c r="D25">
-        <v>11.41526306437605</v>
+        <v>10.88502042566311</v>
       </c>
       <c r="E25">
-        <v>11.1158301716875</v>
+        <v>11.03778173135451</v>
       </c>
       <c r="F25">
-        <v>11.26988959245063</v>
+        <v>11.01624165480712</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>11.0947478850845</v>
+        <v>11.03036732266617</v>
       </c>
       <c r="C26">
-        <v>11.02898279811263</v>
+        <v>11.36261695240948</v>
       </c>
       <c r="D26">
-        <v>11.47280054596752</v>
+        <v>10.91750234099226</v>
       </c>
       <c r="E26">
-        <v>11.17095903428113</v>
+        <v>11.06715511913344</v>
       </c>
       <c r="F26">
-        <v>11.31696070331465</v>
+        <v>11.04359401641217</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>11.1261577514484</v>
+        <v>11.06208350468779</v>
       </c>
       <c r="C27">
-        <v>11.0563862557788</v>
+        <v>11.43019207594786</v>
       </c>
       <c r="D27">
-        <v>11.53051173519499</v>
+        <v>10.95011909630852</v>
       </c>
       <c r="E27">
-        <v>11.22696214700946</v>
+        <v>11.09683101753887</v>
       </c>
       <c r="F27">
-        <v>11.3642150709347</v>
+        <v>11.07124538312121</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>11.15801828770374</v>
+        <v>11.09442621672288</v>
       </c>
       <c r="C28">
-        <v>11.08427638298672</v>
+        <v>11.49841256080938</v>
       </c>
       <c r="D28">
-        <v>11.5884709335889</v>
+        <v>10.98297827995809</v>
       </c>
       <c r="E28">
-        <v>11.28389639669796</v>
+        <v>11.12697590966855</v>
       </c>
       <c r="F28">
-        <v>11.41176163307217</v>
+        <v>11.09936949761981</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>11.19048199641376</v>
+        <v>11.12754421587241</v>
       </c>
       <c r="C29">
-        <v>11.11281745363824</v>
+        <v>11.56727983582546</v>
       </c>
       <c r="D29">
-        <v>11.64674776540151</v>
+        <v>11.01618387533218</v>
       </c>
       <c r="E29">
-        <v>11.34181246160475</v>
+        <v>11.15774785792915</v>
       </c>
       <c r="F29">
-        <v>11.45970404853556</v>
+        <v>11.12813142079668</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>11.22369361341053</v>
+        <v>11.1615787519634</v>
       </c>
       <c r="C30">
-        <v>11.14216529627162</v>
+        <v>11.63679211338145</v>
       </c>
       <c r="D30">
-        <v>11.70540746829129</v>
+        <v>11.04983637799224</v>
       </c>
       <c r="E30">
-        <v>11.40075488687421</v>
+        <v>11.18929692162685</v>
       </c>
       <c r="F30">
-        <v>11.50814088368106</v>
+        <v>11.15768796172929</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>11.2577903729386</v>
+        <v>11.19666351172125</v>
       </c>
       <c r="C31">
-        <v>11.17246814902327</v>
+        <v>11.70694451459126</v>
       </c>
       <c r="D31">
-        <v>11.76451095640329</v>
+        <v>11.08403288773758</v>
       </c>
       <c r="E31">
-        <v>11.46076216388642</v>
+        <v>11.22176554757282</v>
       </c>
       <c r="F31">
-        <v>11.5571658403741</v>
+        <v>11.18818802902238</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>11.29290246714064</v>
+        <v>11.23292530398721</v>
       </c>
       <c r="C32">
-        <v>11.20386646938367</v>
+        <v>11.77772924074251</v>
       </c>
       <c r="D32">
-        <v>11.824115043238</v>
+        <v>11.11886721702896</v>
       </c>
       <c r="E32">
-        <v>11.52186681321031</v>
+        <v>11.25528895340411</v>
       </c>
       <c r="F32">
-        <v>11.60686796439962</v>
+        <v>11.21977307421207</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>11.32915338351027</v>
+        <v>11.27048418812487</v>
       </c>
       <c r="C33">
-        <v>11.2364939033949</v>
+        <v>11.84913571424855</v>
       </c>
       <c r="D33">
-        <v>11.88427258877204</v>
+        <v>11.15442999070599</v>
       </c>
       <c r="E33">
-        <v>11.58409547044868</v>
+        <v>11.28999546753961</v>
       </c>
       <c r="F33">
-        <v>11.65733180648805</v>
+        <v>11.2525773332394</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>11.36666020779891</v>
+        <v>11.3094538873746</v>
       </c>
       <c r="C34">
-        <v>11.27047703859927</v>
+        <v>11.92115070104948</v>
       </c>
       <c r="D34">
-        <v>11.94503257488411</v>
+        <v>11.19080873471232</v>
       </c>
       <c r="E34">
-        <v>11.64746897386826</v>
+        <v>11.32600687322098</v>
       </c>
       <c r="F34">
-        <v>11.70863760998388</v>
+        <v>11.28672825439085</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>11.40553399870776</v>
+        <v>11.34994208820213</v>
       </c>
       <c r="C35">
-        <v>11.30593625993506</v>
+        <v>11.99375848628618</v>
       </c>
       <c r="D35">
-        <v>12.00644034595592</v>
+        <v>11.22808796883778</v>
       </c>
       <c r="E35">
-        <v>11.71200246257155</v>
+        <v>11.36343872743648</v>
       </c>
       <c r="F35">
-        <v>11.76086148725593</v>
+        <v>11.32234681729588</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>11.44587994979913</v>
+        <v>11.39205064602334</v>
       </c>
       <c r="C36">
-        <v>11.34298561925357</v>
+        <v>12.06694096321096</v>
       </c>
       <c r="D36">
-        <v>12.06853759537747</v>
+        <v>11.26634929672404</v>
       </c>
       <c r="E36">
-        <v>11.77770547774146</v>
+        <v>11.40240066914646</v>
       </c>
       <c r="F36">
-        <v>11.81407554779235</v>
+        <v>11.35954786773324</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>11.48779783415907</v>
+        <v>11.4358759538661</v>
       </c>
       <c r="C37">
-        <v>11.38173351614546</v>
+        <v>12.14067780716376</v>
       </c>
       <c r="D37">
-        <v>12.13136262216408</v>
+        <v>11.30567148207018</v>
       </c>
       <c r="E37">
-        <v>11.8445820707811</v>
+        <v>11.44299670419326</v>
       </c>
       <c r="F37">
-        <v>11.86834804495243</v>
+        <v>11.39844039988373</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>11.53138211048743</v>
+        <v>11.48150905431337</v>
       </c>
       <c r="C38">
-        <v>11.42228264447198</v>
+        <v>12.21494656819058</v>
       </c>
       <c r="D38">
-        <v>12.19495031434928</v>
+        <v>11.3461305266783</v>
       </c>
       <c r="E38">
-        <v>11.91263091513562</v>
+        <v>11.48532547815718</v>
       </c>
       <c r="F38">
-        <v>11.92374351977011</v>
+        <v>11.43912785263034</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>11.57672230204075</v>
+        <v>11.52903596205483</v>
       </c>
       <c r="C39">
-        <v>11.4647305881148</v>
+        <v>12.28972281845782</v>
       </c>
       <c r="D39">
-        <v>12.25933236238808</v>
+        <v>11.38779974847636</v>
       </c>
       <c r="E39">
-        <v>11.98184543526267</v>
+        <v>11.52948053827337</v>
       </c>
       <c r="F39">
-        <v>11.98032289267249</v>
+        <v>11.48170837871983</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>11.62390317426862</v>
+        <v>11.57853782316698</v>
       </c>
       <c r="C40">
-        <v>11.50916974413883</v>
+        <v>12.36498024497132</v>
       </c>
       <c r="D40">
-        <v>12.3245372647995</v>
+        <v>11.43074984597397</v>
       </c>
       <c r="E40">
-        <v>12.05221393542662</v>
+        <v>11.57555057848712</v>
       </c>
       <c r="F40">
-        <v>12.03814357823939</v>
+        <v>11.52627507758989</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>11.67300498146314</v>
+        <v>11.63009109771821</v>
       </c>
       <c r="C41">
-        <v>11.55568790484254</v>
+        <v>12.44069078244275</v>
       </c>
       <c r="D41">
-        <v>12.39059049799304</v>
+        <v>11.47504896384252</v>
       </c>
       <c r="E41">
-        <v>12.12371973615925</v>
+        <v>11.62361967888281</v>
       </c>
       <c r="F41">
-        <v>12.09725959314211</v>
+        <v>11.57291625228366</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>11.7241037192822</v>
+        <v>11.68376780941111</v>
       </c>
       <c r="C42">
-        <v>11.60436813946823</v>
+        <v>12.51682471587221</v>
       </c>
       <c r="D42">
-        <v>12.45751452303558</v>
+        <v>11.52076275689684</v>
       </c>
       <c r="E42">
-        <v>12.19634132330699</v>
+        <v>11.67376751864663</v>
       </c>
       <c r="F42">
-        <v>12.15772161976322</v>
+        <v>11.6217156467417</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>11.77727125423376</v>
+        <v>11.73963561433595</v>
       </c>
       <c r="C43">
-        <v>11.65528934950429</v>
+        <v>12.5933507785994</v>
       </c>
       <c r="D43">
-        <v>12.52532893490475</v>
+        <v>11.56795444511344</v>
       </c>
       <c r="E43">
-        <v>12.27005250662101</v>
+        <v>11.726069590028</v>
       </c>
       <c r="F43">
-        <v>12.21957708390304</v>
+        <v>11.67275265401665</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>11.83257561401698</v>
+        <v>11.79775803635343</v>
       </c>
       <c r="C44">
-        <v>11.70852615325924</v>
+        <v>12.67023627959528</v>
       </c>
       <c r="D44">
-        <v>12.59405045317581</v>
+        <v>11.61668486235509</v>
       </c>
       <c r="E44">
-        <v>12.34482258344533</v>
+        <v>11.78059739550298</v>
       </c>
       <c r="F44">
-        <v>12.28287022987861</v>
+        <v>11.72610252455762</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>11.89008107229055</v>
+        <v>11.85819453837806</v>
       </c>
       <c r="C45">
-        <v>11.76414937830662</v>
+        <v>12.74744717271652</v>
       </c>
       <c r="D45">
-        <v>12.66369305922433</v>
+        <v>11.66701250459551</v>
       </c>
       <c r="E45">
-        <v>12.42061650685985</v>
+        <v>11.83741863829861</v>
       </c>
       <c r="F45">
-        <v>12.3476421513773</v>
+        <v>11.78183657233635</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>11.94984840032497</v>
+        <v>11.92100064660204</v>
       </c>
       <c r="C46">
-        <v>11.82222602250248</v>
+        <v>12.82494818675993</v>
       </c>
       <c r="D46">
-        <v>12.73426797437766</v>
+        <v>11.71899357377601</v>
       </c>
       <c r="E46">
-        <v>12.49739507352108</v>
+        <v>11.8965973955375</v>
       </c>
       <c r="F46">
-        <v>12.41393083235744</v>
+        <v>11.84002235243936</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>12.01193498688202</v>
+        <v>11.9862280937092</v>
       </c>
       <c r="C47">
-        <v>11.8828195298321</v>
+        <v>12.90270289085485</v>
       </c>
       <c r="D47">
-        <v>12.80578377777607</v>
+        <v>11.77268200783973</v>
       </c>
       <c r="E47">
-        <v>12.57511511160732</v>
+        <v>11.95819428440405</v>
       </c>
       <c r="F47">
-        <v>12.48177118747493</v>
+        <v>11.9007238330849</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>12.07639499649089</v>
+        <v>12.0539248056656</v>
       </c>
       <c r="C48">
-        <v>11.94598991865043</v>
+        <v>12.98067381150394</v>
       </c>
       <c r="D48">
-        <v>12.8782463810567</v>
+        <v>11.82812950941927</v>
       </c>
       <c r="E48">
-        <v>12.65372967822594</v>
+        <v>12.02226661911248</v>
       </c>
       <c r="F48">
-        <v>12.55119505875578</v>
+        <v>11.96400156328613</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>12.14327955353647</v>
+        <v>12.12413507215088</v>
       </c>
       <c r="C49">
-        <v>12.01179396355835</v>
+        <v>13.05882250229899</v>
       </c>
       <c r="D49">
-        <v>12.95165911977835</v>
+        <v>11.88538557583114</v>
       </c>
       <c r="E49">
-        <v>12.73318825832023</v>
+        <v>12.08886855633835</v>
       </c>
       <c r="F49">
-        <v>12.62223121775631</v>
+        <v>12.02991283469352</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>12.21263681322202</v>
+        <v>12.19689948543618</v>
       </c>
       <c r="C50">
-        <v>12.08028534789065</v>
+        <v>13.1371096421277</v>
       </c>
       <c r="D50">
-        <v>13.0260227260136</v>
+        <v>11.944497500698</v>
       </c>
       <c r="E50">
-        <v>12.81343698421523</v>
+        <v>12.15805123400983</v>
       </c>
       <c r="F50">
-        <v>12.69490536863289</v>
+        <v>12.09851181309784</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>12.28451215890132</v>
+        <v>12.27225502468202</v>
       </c>
       <c r="C51">
-        <v>12.1515147886307</v>
+        <v>13.21549511626873</v>
       </c>
       <c r="D51">
-        <v>13.10133539321364</v>
+        <v>12.00551038180556</v>
       </c>
       <c r="E51">
-        <v>12.89441884891069</v>
+        <v>12.22986289092296</v>
       </c>
       <c r="F51">
-        <v>12.76924010809137</v>
+        <v>12.16984967929094</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>12.35894825409214</v>
+        <v>12.35023504346712</v>
       </c>
       <c r="C52">
-        <v>12.22553015603767</v>
+        <v>13.29393808894851</v>
       </c>
       <c r="D52">
-        <v>13.17759274231765</v>
+        <v>12.068467125166</v>
       </c>
       <c r="E52">
-        <v>12.97607392768583</v>
+        <v>12.30434898522222</v>
       </c>
       <c r="F52">
-        <v>12.84525488381277</v>
+        <v>12.24397476170558</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>12.43598521020404</v>
+        <v>12.43086917589053</v>
       </c>
       <c r="C53">
-        <v>12.30237661134692</v>
+        <v>13.37239710167726</v>
       </c>
       <c r="D53">
-        <v>13.25478786214931</v>
+        <v>12.13340841660524</v>
       </c>
       <c r="E53">
-        <v>13.05833960516443</v>
+        <v>12.3815522970606</v>
       </c>
       <c r="F53">
-        <v>12.92296595640868</v>
+        <v>12.32093264122629</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>12.51566062406993</v>
+        <v>12.51418341023938</v>
       </c>
       <c r="C54">
-        <v>12.3820966833934</v>
+        <v>13.45083012426916</v>
       </c>
       <c r="D54">
-        <v>13.33291126573318</v>
+        <v>12.20037269173957</v>
       </c>
       <c r="E54">
-        <v>13.14115080948264</v>
+        <v>12.46151302452081</v>
       </c>
       <c r="F54">
-        <v>13.00238631731646</v>
+        <v>12.4007662573305</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>12.59800969257975</v>
+        <v>12.6001998368157</v>
       </c>
       <c r="C55">
-        <v>12.46473038425786</v>
+        <v>13.52919465460335</v>
       </c>
       <c r="D55">
-        <v>13.41195092567677</v>
+        <v>12.2693961027959</v>
       </c>
       <c r="E55">
-        <v>13.22444024411468</v>
+        <v>12.54426885976308</v>
       </c>
       <c r="F55">
-        <v>13.08352559502575</v>
+        <v>12.48351600625354</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>12.68306528864009</v>
+        <v>12.68893667027669</v>
       </c>
       <c r="C56">
-        <v>12.55031530902022</v>
+        <v>13.60744776747017</v>
       </c>
       <c r="D56">
-        <v>13.49189217479932</v>
+        <v>12.34051244414592</v>
       </c>
       <c r="E56">
-        <v>13.30813862281519</v>
+        <v>12.62985505481824</v>
       </c>
       <c r="F56">
-        <v>13.16638997400903</v>
+        <v>12.56921982593425</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>12.77085802277965</v>
+        <v>12.78040800374813</v>
       </c>
       <c r="C57">
-        <v>12.63888668972735</v>
+        <v>13.68554620364268</v>
       </c>
       <c r="D57">
-        <v>13.57271771199638</v>
+        <v>12.41375306143984</v>
       </c>
       <c r="E57">
-        <v>13.39217490909786</v>
+        <v>12.71830447213306</v>
       </c>
       <c r="F57">
-        <v>13.25098206522718</v>
+        <v>12.65791325118546</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>12.8614162978021</v>
+        <v>12.87462357720629</v>
       </c>
       <c r="C58">
-        <v>12.73047746777779</v>
+        <v>13.76344642283744</v>
       </c>
       <c r="D58">
-        <v>13.65440754832462</v>
+        <v>12.48914675525258</v>
       </c>
       <c r="E58">
-        <v>13.47647655304669</v>
+        <v>12.80964761600485</v>
       </c>
       <c r="F58">
-        <v>13.33730075238349</v>
+        <v>12.74962946994194</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>12.95476632847459</v>
+        <v>12.97158870653971</v>
       </c>
       <c r="C59">
-        <v>12.82511834233281</v>
+        <v>13.84110467756244</v>
       </c>
       <c r="D59">
-        <v>13.73693895576316</v>
+        <v>12.56671963756108</v>
       </c>
       <c r="E59">
-        <v>13.56096972729383</v>
+        <v>12.90391264818851</v>
       </c>
       <c r="F59">
-        <v>13.42534105126705</v>
+        <v>12.84439936143547</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>13.05093215594495</v>
+        <v>13.07130374729627</v>
       </c>
       <c r="C60">
-        <v>12.92283780182371</v>
+        <v>13.91847707543</v>
       </c>
       <c r="D60">
-        <v>13.82028638459424</v>
+        <v>12.64649493413054</v>
       </c>
       <c r="E60">
-        <v>13.64557956292788</v>
+        <v>13.00112536412053</v>
       </c>
       <c r="F60">
-        <v>13.51509392303556</v>
+        <v>12.9422515115315</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>13.14993563710974</v>
+        <v>13.17376380809387</v>
       </c>
       <c r="C61">
-        <v>13.02366213294511</v>
+        <v>13.99551963257731</v>
       </c>
       <c r="D61">
-        <v>13.90442138910541</v>
+        <v>12.72849277295776</v>
       </c>
       <c r="E61">
-        <v>13.73023038197993</v>
+        <v>13.10130914861897</v>
       </c>
       <c r="F61">
-        <v>13.60654605070312</v>
+        <v>13.04321219842862</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>13.25179640576529</v>
+        <v>13.27895829626737</v>
       </c>
       <c r="C62">
-        <v>13.12761540348687</v>
+        <v>14.07218834936805</v>
       </c>
       <c r="D62">
-        <v>13.98931252018482</v>
+        <v>12.81272993573423</v>
       </c>
       <c r="E62">
-        <v>13.81484592568001</v>
+        <v>13.20448488333225</v>
       </c>
       <c r="F62">
-        <v>13.69967962868094</v>
+        <v>13.14730534488751</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>13.35653180366749</v>
+        <v>13.38687041490217</v>
       </c>
       <c r="C63">
-        <v>13.2347194130896</v>
+        <v>14.14843924692257</v>
       </c>
       <c r="D63">
-        <v>14.07492519685864</v>
+        <v>12.89921946151072</v>
       </c>
       <c r="E63">
-        <v>13.89934957868013</v>
+        <v>13.31067082243918</v>
       </c>
       <c r="F63">
-        <v>13.79447211106646</v>
+        <v>13.25455242942726</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>13.46415675092256</v>
+        <v>13.49747653548547</v>
       </c>
       <c r="C64">
-        <v>13.34499360209161</v>
+        <v>14.22422844339834</v>
       </c>
       <c r="D64">
-        <v>14.16122158535179</v>
+        <v>12.98797029439741</v>
       </c>
       <c r="E64">
-        <v>13.9836645916975</v>
+        <v>13.41988237697275</v>
       </c>
       <c r="F64">
-        <v>13.89089589622759</v>
+        <v>13.36497234269382</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>13.57468356752726</v>
+        <v>13.6107454527852</v>
       </c>
       <c r="C65">
-        <v>13.45845490325089</v>
+        <v>14.29951218903259</v>
       </c>
       <c r="D65">
-        <v>14.24816045027126</v>
+        <v>13.07898666690419</v>
       </c>
       <c r="E65">
-        <v>14.06771429059789</v>
+        <v>13.53213183363843</v>
       </c>
       <c r="F65">
-        <v>13.98891803000691</v>
+        <v>13.47858116888721</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>13.6881217087573</v>
+        <v>13.72663751176979</v>
       </c>
       <c r="C66">
-        <v>13.5751175214137</v>
+        <v>14.37424693348736</v>
       </c>
       <c r="D66">
-        <v>14.33569696538509</v>
+        <v>13.17226748651627</v>
       </c>
       <c r="E66">
-        <v>14.15142228399954</v>
+        <v>13.64742797072667</v>
       </c>
       <c r="F66">
-        <v>14.08849987444336</v>
+        <v>13.59539186499184</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>13.80447740999234</v>
+        <v>13.84510362863227</v>
       </c>
       <c r="C67">
-        <v>13.69499260257455</v>
+        <v>14.44838936439537</v>
       </c>
       <c r="D67">
-        <v>14.42378252358563</v>
+        <v>13.26780557110992</v>
       </c>
       <c r="E67">
-        <v>14.23471266433478</v>
+        <v>13.76577544746392</v>
       </c>
       <c r="F67">
-        <v>14.18959667485028</v>
+        <v>13.71541379998181</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>13.92375323469767</v>
+        <v>13.96608409802341</v>
       </c>
       <c r="C68">
-        <v>13.81808776109505</v>
+        <v>14.52189646192173</v>
       </c>
       <c r="D68">
-        <v>14.51236454323879</v>
+        <v>13.36558667903715</v>
       </c>
       <c r="E68">
-        <v>14.31751019891886</v>
+        <v>13.88717409077508</v>
       </c>
       <c r="F68">
-        <v>14.29215715489829</v>
+        <v>13.83865213764052</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>14.04594727444417</v>
+        <v>14.08950724853123</v>
       </c>
       <c r="C69">
-        <v>13.94440644061386</v>
+        <v>14.5947255452342</v>
       </c>
       <c r="D69">
-        <v>14.60138618403008</v>
+        <v>13.4655883103559</v>
       </c>
       <c r="E69">
-        <v>14.39974050911024</v>
+        <v>14.01161789688688</v>
       </c>
       <c r="F69">
-        <v>14.39612308956886</v>
+        <v>13.96510682640442</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>14.17105220308164</v>
+        <v>14.21528789182137</v>
       </c>
       <c r="C70">
-        <v>14.07394686892492</v>
+        <v>14.66683431013527</v>
       </c>
       <c r="D70">
-        <v>14.69078608987522</v>
+        <v>13.56777825939756</v>
       </c>
       <c r="E70">
-        <v>14.48133024446699</v>
+        <v>14.13909364996499</v>
       </c>
       <c r="F70">
-        <v>14.50142872265896</v>
+        <v>14.09477132174654</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>14.29905397997027</v>
+        <v>14.34332552996968</v>
       </c>
       <c r="C71">
-        <v>14.20670067220207</v>
+        <v>14.73818088617444</v>
       </c>
       <c r="D71">
-        <v>14.78049812384275</v>
+        <v>13.6721128788415</v>
       </c>
       <c r="E71">
-        <v>14.56220725158803</v>
+        <v>14.26957906003394</v>
       </c>
       <c r="F71">
-        <v>14.60800022715056</v>
+        <v>14.22763073963159</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>14.42993004381039</v>
+        <v>14.47350236452963</v>
       </c>
       <c r="C72">
-        <v>14.34265087660198</v>
+        <v>14.80872386068399</v>
       </c>
       <c r="D72">
-        <v>14.87045099787454</v>
+        <v>13.77853500761321</v>
       </c>
       <c r="E72">
-        <v>14.64230072247973</v>
+        <v>14.40304026809109</v>
       </c>
       <c r="F72">
-        <v>14.71575515981565</v>
+        <v>14.36365919612521</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>14.56364662429483</v>
+        <v>14.60568100874879</v>
       </c>
       <c r="C73">
-        <v>14.48176892813219</v>
+        <v>14.87842233602876</v>
       </c>
       <c r="D73">
-        <v>14.96056794099137</v>
+        <v>13.88697152832096</v>
       </c>
       <c r="E73">
-        <v>14.72154133880038</v>
+        <v>14.53942849509989</v>
       </c>
       <c r="F73">
-        <v>14.82460169456386</v>
+        <v>14.50281608611331</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>14.70015527883102</v>
+        <v>14.73970193094958</v>
       </c>
       <c r="C74">
-        <v>14.62401046583162</v>
+        <v>14.94723595246537</v>
       </c>
       <c r="D74">
-        <v>15.0507663731932</v>
+        <v>13.9973305485196</v>
       </c>
       <c r="E74">
-        <v>14.7998614049286</v>
+        <v>14.67867564011195</v>
       </c>
       <c r="F74">
-        <v>14.9344379759964</v>
+        <v>14.64504094352439</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>14.8393879967383</v>
+        <v>14.87538072209938</v>
       </c>
       <c r="C75">
-        <v>14.76930920855813</v>
+        <v>15.01512493773883</v>
       </c>
       <c r="D75">
-        <v>15.1409574430693</v>
+        <v>14.1094982413004</v>
       </c>
       <c r="E75">
-        <v>14.87719497837201</v>
+        <v>14.82068847116854</v>
       </c>
       <c r="F75">
-        <v>15.04515126644136</v>
+        <v>14.79024637564279</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>14.98125051651148</v>
+        <v>15.01250516106876</v>
       </c>
       <c r="C76">
-        <v>14.91756833069706</v>
+        <v>15.08205013306749</v>
       </c>
       <c r="D76">
-        <v>15.23104567985696</v>
+        <v>14.22333545733939</v>
       </c>
       <c r="E76">
-        <v>14.9534779717065</v>
+        <v>14.96534078041975</v>
       </c>
       <c r="F76">
-        <v>15.15661712804899</v>
+        <v>14.93830868261741</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>15.12561339272422</v>
+        <v>15.15083224072727</v>
       </c>
       <c r="C77">
-        <v>15.06864860393355</v>
+        <v>15.14797303169695</v>
       </c>
       <c r="D77">
-        <v>15.32092862688974</v>
+        <v>14.33867415771993</v>
       </c>
       <c r="E77">
-        <v>15.02864825843463</v>
+        <v>15.11246399489885</v>
       </c>
       <c r="F77">
-        <v>15.26869854913003</v>
+        <v>15.08905567512496</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>15.27230031413056</v>
+        <v>15.29008501447721</v>
       </c>
       <c r="C78">
-        <v>15.22235271576743</v>
+        <v>15.21285581179536</v>
       </c>
       <c r="D78">
-        <v>15.41049650607441</v>
+        <v>14.45531424355531</v>
       </c>
       <c r="E78">
-        <v>15.10264576535201</v>
+        <v>15.26183547726378</v>
       </c>
       <c r="F78">
-        <v>15.38124498052487</v>
+        <v>15.24225205360014</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>15.42107348966276</v>
+        <v>15.42995007726872</v>
       </c>
       <c r="C79">
-        <v>15.37840568377086</v>
+        <v>15.27666136074313</v>
       </c>
       <c r="D79">
-        <v>15.4996319445245</v>
+        <v>14.5730209940971</v>
       </c>
       <c r="E79">
-        <v>15.17541255660899</v>
+        <v>15.4131647799171</v>
       </c>
       <c r="F79">
-        <v>15.49409132017206</v>
+        <v>15.39758241370216</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>15.57161632740296</v>
+        <v>15.57007550345975</v>
       </c>
       <c r="C80">
-        <v>15.53643228676293</v>
+        <v>15.33935331661683</v>
       </c>
       <c r="D80">
-        <v>15.58820981832235</v>
+        <v>14.69152352199487</v>
       </c>
       <c r="E80">
-        <v>15.2468928967677</v>
+        <v>15.56607890495267</v>
       </c>
       <c r="F80">
-        <v>15.60705688316552</v>
+        <v>15.55463367569775</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>15.72351476167539</v>
+        <v>15.71006964250305</v>
       </c>
       <c r="C81">
-        <v>15.69593405678979</v>
+        <v>15.40089608153063</v>
       </c>
       <c r="D81">
-        <v>15.67609727244036</v>
+        <v>14.81051494562417</v>
       </c>
       <c r="E81">
-        <v>15.31703331509845</v>
+        <v>15.72010803045347</v>
       </c>
       <c r="F81">
-        <v>15.71994437939257</v>
+        <v>15.7128793082658</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>15.87623986801049</v>
+        <v>15.84950141528082</v>
       </c>
       <c r="C82">
-        <v>15.85627042717923</v>
+        <v>15.46125486288841</v>
       </c>
       <c r="D82">
-        <v>15.76315395741762</v>
+        <v>14.92965479740305</v>
       </c>
       <c r="E82">
-        <v>15.38578266046805</v>
+        <v>15.87467467946884</v>
       </c>
       <c r="F82">
-        <v>15.83253893032777</v>
+        <v>15.87166941963738</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>16.02913638019372</v>
+        <v>15.98790250815045</v>
       </c>
       <c r="C83">
-        <v>16.01665056390462</v>
+        <v>15.52039568597319</v>
       </c>
       <c r="D83">
-        <v>15.84923255158083</v>
+        <v>15.04857373449365</v>
       </c>
       <c r="E83">
-        <v>15.45309213921686</v>
+        <v>16.02908975490462</v>
       </c>
       <c r="F83">
-        <v>15.94460718344357</v>
+        <v>16.03023100905279</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>16.1814222452713</v>
+        <v>16.1247719754161</v>
       </c>
       <c r="C84">
-        <v>16.17614285810166</v>
+        <v>15.57828542858238</v>
       </c>
       <c r="D84">
-        <v>15.93417964964385</v>
+        <v>15.16688080918123</v>
       </c>
       <c r="E84">
-        <v>15.51891534625718</v>
+        <v>16.18255935702875</v>
       </c>
       <c r="F84">
-        <v>16.05589660147982</v>
+        <v>16.18768250348062</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>16.33220457208389</v>
+        <v>16.25958348906002</v>
       </c>
       <c r="C85">
-        <v>16.33370673154105</v>
+        <v>15.63489183648772</v>
       </c>
       <c r="D85">
-        <v>16.01783700628162</v>
+        <v>15.28417269214652</v>
       </c>
       <c r="E85">
-        <v>15.58320828996819</v>
+        <v>16.33420534994896</v>
       </c>
       <c r="F85">
-        <v>16.16613505518709</v>
+        <v>16.3430642189905</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>16.48051419585842</v>
+        <v>16.39179531298771</v>
       </c>
       <c r="C86">
-        <v>16.48824581394803</v>
+        <v>15.69018354862779</v>
       </c>
       <c r="D86">
-        <v>16.10004315982893</v>
+        <v>15.40004423224164</v>
       </c>
       <c r="E86">
-        <v>15.64592941290445</v>
+        <v>16.48309962946726</v>
       </c>
       <c r="F86">
-        <v>16.27503101290908</v>
+        <v>16.49538269421851</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>16.62535604817622</v>
+        <v>16.52086272647399</v>
       </c>
       <c r="C87">
-        <v>16.6386747550129</v>
+        <v>15.74413011854011</v>
       </c>
       <c r="D87">
-        <v>16.18063540971748</v>
+        <v>15.51409938024946</v>
       </c>
       <c r="E87">
-        <v>15.70703959190353</v>
+        <v>16.62830883973083</v>
       </c>
       <c r="F87">
-        <v>16.3822743014902</v>
+        <v>16.64366263938456</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>16.76576729084698</v>
+        <v>16.64625201035144</v>
       </c>
       <c r="C88">
-        <v>16.78398583755648</v>
+        <v>15.79670202779482</v>
       </c>
       <c r="D88">
-        <v>16.25945204950349</v>
+        <v>15.62596133061971</v>
       </c>
       <c r="E88">
-        <v>15.76650214068099</v>
+        <v>16.76894252144906</v>
       </c>
       <c r="F88">
-        <v>16.4875378075669</v>
+        <v>16.78699778906329</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>16.90087220545901</v>
+        <v>16.76745538029475</v>
       </c>
       <c r="C89">
-        <v>16.92330353406827</v>
+        <v>15.84787071418356</v>
       </c>
       <c r="D89">
-        <v>16.33633465280464</v>
+        <v>15.73528116198469</v>
       </c>
       <c r="E89">
-        <v>15.82428280223957</v>
+        <v>16.90419684351878</v>
       </c>
       <c r="F89">
-        <v>16.59048056899798</v>
+        <v>16.9245924838107</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>17.02992410734344</v>
+        <v>16.88400453454195</v>
       </c>
       <c r="C90">
-        <v>17.05591799422539</v>
+        <v>15.89760857664163</v>
       </c>
       <c r="D90">
-        <v>16.41113038024302</v>
+        <v>15.84174448278393</v>
       </c>
       <c r="E90">
-        <v>15.88034974026978</v>
+        <v>17.03338729090773</v>
       </c>
       <c r="F90">
-        <v>16.69075237283597</v>
+        <v>17.0557886287762</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>17.15232901493382</v>
+        <v>16.99548278694574</v>
       </c>
       <c r="C91">
-        <v>17.18129708499182</v>
+        <v>15.94588900293628</v>
       </c>
       <c r="D91">
-        <v>16.48369407711945</v>
+        <v>15.94507549231124</v>
       </c>
       <c r="E91">
-        <v>15.93467351105862</v>
+        <v>17.15596694671947</v>
       </c>
       <c r="F91">
-        <v>16.78799994934717</v>
+        <v>17.18007694627608</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>17.26765132830518</v>
+        <v>17.10153413329653</v>
       </c>
       <c r="C92">
-        <v>17.29907903844779</v>
+        <v>15.99268637423954</v>
       </c>
       <c r="D92">
-        <v>16.55389009212322</v>
+        <v>16.04503897620397</v>
       </c>
       <c r="E92">
-        <v>15.98722704167063</v>
+        <v>17.27153072730692</v>
       </c>
       <c r="F92">
-        <v>16.88187500335798</v>
+        <v>17.29709450355442</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>17.37560503614902</v>
+        <v>17.20186864137037</v>
       </c>
       <c r="C93">
-        <v>17.40905416402718</v>
+        <v>16.0379760873715</v>
       </c>
       <c r="D93">
-        <v>16.62159372432164</v>
+        <v>16.14144029594242</v>
       </c>
       <c r="E93">
-        <v>16.03798559999487</v>
+        <v>17.37980822200395</v>
       </c>
       <c r="F93">
-        <v>16.97204346062841</v>
+        <v>17.40661258371998</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>17.47603621763256</v>
+        <v>17.2962643634974</v>
       </c>
       <c r="C94">
-        <v>17.51114083800131</v>
+        <v>16.08173456203048</v>
       </c>
       <c r="D94">
-        <v>16.68669226900942</v>
+        <v>16.23412376684733</v>
       </c>
       <c r="E94">
-        <v>16.08692675840661</v>
+        <v>17.48064934645091</v>
       </c>
       <c r="F94">
-        <v>17.05819534363311</v>
+        <v>17.50851913969466</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>17.56890142318285</v>
+        <v>17.38456600215314</v>
       </c>
       <c r="C95">
-        <v>17.60536018284444</v>
+        <v>16.12393925461428</v>
       </c>
       <c r="D95">
-        <v>16.74908567488766</v>
+        <v>16.32297002696934</v>
       </c>
       <c r="E95">
-        <v>16.13403035106019</v>
+        <v>17.57400628695089</v>
       </c>
       <c r="F95">
-        <v>17.14005407996634</v>
+        <v>17.6027991567185</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>17.65424575087939</v>
+        <v>17.46668083837527</v>
       </c>
       <c r="C96">
-        <v>17.69181276018076</v>
+        <v>16.16456867055809</v>
       </c>
       <c r="D96">
-        <v>16.80868684404719</v>
+        <v>16.4078927611464</v>
       </c>
       <c r="E96">
-        <v>16.17927843106712</v>
+        <v>17.65991468240469</v>
       </c>
       <c r="F96">
-        <v>17.21738415612989</v>
+        <v>17.68951552315864</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>17.73218260530653</v>
+        <v>17.54257295283827</v>
       </c>
       <c r="C97">
-        <v>17.77065839042249</v>
+        <v>16.203602369744</v>
       </c>
       <c r="D97">
-        <v>16.86542162763629</v>
+        <v>16.48883503397003</v>
       </c>
       <c r="E97">
-        <v>16.2226552243766</v>
+        <v>17.7384759632031</v>
       </c>
       <c r="F97">
-        <v>17.28999618727661</v>
+        <v>17.76879155276453</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>17.80287631603565</v>
+        <v>17.61225636376071</v>
       </c>
       <c r="C98">
-        <v>17.84209942177196</v>
+        <v>16.24102098328832</v>
       </c>
       <c r="D98">
-        <v>16.91922856917149</v>
+        <v>16.56576561858718</v>
       </c>
       <c r="E98">
-        <v>16.26414707600535</v>
+        <v>17.80984165167593</v>
       </c>
       <c r="F98">
-        <v>17.35774898596193</v>
+        <v>17.84079608602624</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>17.86652780308074</v>
+        <v>17.67578772725773</v>
       </c>
       <c r="C99">
-        <v>17.90636744474878</v>
+        <v>16.27680621284048</v>
       </c>
       <c r="D99">
-        <v>16.97005845605325</v>
+        <v>16.63867545169121</v>
       </c>
       <c r="E99">
-        <v>16.30374239655594</v>
+        <v>17.87420021352228</v>
       </c>
       <c r="F99">
-        <v>17.42054879808678</v>
+        <v>17.90573096172676</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>17.9233628483804</v>
+        <v>17.73325917239856</v>
       </c>
       <c r="C100">
-        <v>17.96371318750192</v>
+        <v>16.31094084684436</v>
       </c>
       <c r="D100">
-        <v>17.0178737560561</v>
+        <v>16.70757432307473</v>
       </c>
       <c r="E100">
-        <v>16.34143160606024</v>
+        <v>17.93176607175963</v>
       </c>
       <c r="F100">
-        <v>17.47834626994327</v>
+        <v>17.96382081447094</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>17.97362337445816</v>
+        <v>17.78479150094416</v>
       </c>
       <c r="C101">
-        <v>18.01439854695969</v>
+        <v>16.34340875956629</v>
       </c>
       <c r="D101">
-        <v>17.06264791835043</v>
+        <v>16.77248788504243</v>
       </c>
       <c r="E101">
-        <v>16.3772070769572</v>
+        <v>17.98277102260333</v>
       </c>
       <c r="F101">
-        <v>17.53113190914475</v>
+        <v>18.01530541012433</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>18.01756065782487</v>
+        <v>17.83052809337885</v>
       </c>
       <c r="C102">
-        <v>18.05869054373033</v>
+        <v>16.37419492321471</v>
       </c>
       <c r="D102">
-        <v>17.10436459981369</v>
+        <v>16.833454957463</v>
       </c>
       <c r="E102">
-        <v>16.41106307124865</v>
+        <v>18.02745757624839</v>
       </c>
       <c r="F102">
-        <v>17.57893077890936</v>
+        <v>18.06043333133067</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>18.05542993080635</v>
+        <v>17.87062957191529</v>
       </c>
       <c r="C103">
-        <v>18.09685701669632</v>
+        <v>16.40328540902336</v>
       </c>
       <c r="D103">
-        <v>17.14301690765928</v>
+        <v>16.89052516053127</v>
       </c>
       <c r="E103">
-        <v>16.44299568000373</v>
+        <v>18.0660737194546</v>
       </c>
       <c r="F103">
-        <v>17.62179701111387</v>
+        <v>18.09945712865294</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>18.08748651268755</v>
+        <v>17.90526914624308</v>
       </c>
       <c r="C104">
-        <v>18.12916336924924</v>
+        <v>16.43066739363046</v>
       </c>
       <c r="D104">
-        <v>17.17860663888374</v>
+        <v>16.94375691136966</v>
       </c>
       <c r="E104">
-        <v>16.47300276054498</v>
+        <v>18.09886883613659</v>
       </c>
       <c r="F104">
-        <v>17.65980857685715</v>
+        <v>18.13262970789825</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>18.11398302411906</v>
+        <v>17.93462864515442</v>
       </c>
       <c r="C105">
-        <v>18.15587027577464</v>
+        <v>16.45632916400593</v>
       </c>
       <c r="D105">
-        <v>17.21114348748856</v>
+        <v>16.9932156870987</v>
       </c>
       <c r="E105">
-        <v>16.50108387296043</v>
+        <v>18.12609074266319</v>
       </c>
       <c r="F105">
-        <v>17.69306246793719</v>
+        <v>18.16020162484485</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>18.135167304719</v>
+        <v>17.95889537839919</v>
       </c>
       <c r="C106">
-        <v>18.17723198936698</v>
+        <v>16.48026011755944</v>
       </c>
       <c r="D106">
-        <v>17.24064428490773</v>
+        <v>17.038972512645</v>
       </c>
       <c r="E106">
-        <v>16.52724021477135</v>
+        <v>18.1479834913754</v>
       </c>
       <c r="F106">
-        <v>17.72167048730526</v>
+        <v>18.18241910777228</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>18.15128096876476</v>
+        <v>17.97825954239005</v>
       </c>
       <c r="C107">
-        <v>18.1934952646104</v>
+        <v>16.50245077034342</v>
       </c>
       <c r="D107">
-        <v>17.26713227714238</v>
+        <v>17.08110271844433</v>
       </c>
       <c r="E107">
-        <v>16.5514745569236</v>
+        <v>18.16478578896893</v>
       </c>
       <c r="F107">
-        <v>17.74575563522801</v>
+        <v>18.19952260449644</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>18.16255839498092</v>
+        <v>17.99291203940233</v>
       </c>
       <c r="C108">
-        <v>18.20489863563781</v>
+        <v>16.52289275380238</v>
       </c>
       <c r="D108">
-        <v>17.29063644272681</v>
+        <v>17.11968485528407</v>
       </c>
       <c r="E108">
-        <v>16.57379117899899</v>
+        <v>18.176729854687</v>
       </c>
       <c r="F108">
-        <v>17.76544905246959</v>
+        <v>18.21174572552787</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>18.16922605988267</v>
+        <v>18.00304273934615</v>
       </c>
       <c r="C109">
-        <v>18.21167196535829</v>
+        <v>16.54157882274909</v>
       </c>
       <c r="D109">
-        <v>17.31119084560007</v>
+        <v>17.15479978279008</v>
       </c>
       <c r="E109">
-        <v>16.59419580413335</v>
+        <v>18.18404062235588</v>
       </c>
       <c r="F109">
-        <v>17.7808874867894</v>
+        <v>18.21931458318561</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>18.17150219117764</v>
+        <v>18.00883915447006</v>
       </c>
       <c r="C110">
-        <v>18.21403621313533</v>
+        <v>16.5585028525192</v>
       </c>
       <c r="D110">
-        <v>17.32883402764</v>
+        <v>17.186529936008</v>
       </c>
       <c r="E110">
-        <v>16.61269553469203</v>
+        <v>18.18693525054963</v>
       </c>
       <c r="F110">
-        <v>17.79221120786131</v>
+        <v>18.22244737737647</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>18.1695965617076</v>
+        <v>18.01048542247357</v>
       </c>
       <c r="C111">
-        <v>18.21220337118749</v>
+        <v>16.57365984301068</v>
       </c>
       <c r="D111">
-        <v>17.34360844336881</v>
+        <v>17.21495869992204</v>
       </c>
       <c r="E111">
-        <v>16.62929878841923</v>
+        <v>18.1856228618607</v>
       </c>
       <c r="F111">
-        <v>17.79956231481511</v>
+        <v>18.22135413606117</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>18.16371042026492</v>
+        <v>18.00816151573407</v>
       </c>
       <c r="C112">
-        <v>18.20637652005902</v>
+        <v>16.58704592017041</v>
       </c>
       <c r="D112">
-        <v>17.3555599404503</v>
+        <v>17.24016988829545</v>
       </c>
       <c r="E112">
-        <v>16.64401523471326</v>
+        <v>18.18030440404886</v>
       </c>
       <c r="F112">
-        <v>17.80308336280034</v>
+        <v>18.21623661153635</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>18.1540365504734</v>
+        <v>18.00204262496082</v>
       </c>
       <c r="C113">
-        <v>18.19674996065488</v>
+        <v>16.59865833852732</v>
       </c>
       <c r="D113">
-        <v>17.36473728523758</v>
+        <v>17.26224730611905</v>
       </c>
       <c r="E113">
-        <v>16.65685573254676</v>
+        <v>18.17117262339858</v>
       </c>
       <c r="F113">
-        <v>17.8029162465855</v>
+        <v>18.20728829538177</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>18.14075940507287</v>
+        <v>17.99229874255961</v>
       </c>
       <c r="C114">
-        <v>18.183509383923</v>
+        <v>16.60849548355221</v>
       </c>
       <c r="D114">
-        <v>17.37119171488828</v>
+        <v>17.28127439260321</v>
       </c>
       <c r="E114">
-        <v>16.66783226912643</v>
+        <v>18.15841214447341</v>
       </c>
       <c r="F114">
-        <v>17.79920134868893</v>
+        <v>18.19469451039853</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>18.12405529071275</v>
+        <v>17.97909439036917</v>
       </c>
       <c r="C115">
-        <v>18.16683212803925</v>
+        <v>16.61655687432099</v>
       </c>
       <c r="D115">
-        <v>17.37497652791246</v>
+        <v>17.29733392967579</v>
       </c>
       <c r="E115">
-        <v>16.67695789600554</v>
+        <v>18.14219961373533</v>
       </c>
       <c r="F115">
-        <v>17.79207688097328</v>
+        <v>18.17863256623901</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>18.10409259153981</v>
+        <v>17.9625884378431</v>
       </c>
       <c r="C116">
-        <v>18.14688744897412</v>
+        <v>16.62284316720828</v>
       </c>
       <c r="D116">
-        <v>17.37614672348386</v>
+        <v>17.3105078030552</v>
       </c>
       <c r="E116">
-        <v>16.68424667896915</v>
+        <v>18.12270388534435</v>
       </c>
       <c r="F116">
-        <v>17.78167832036027</v>
+        <v>18.15927194833293</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>18.08103200040208</v>
+        <v>17.94293399436655</v>
       </c>
       <c r="C117">
-        <v>18.1238368089276</v>
+        <v>16.62735616016835</v>
       </c>
       <c r="D117">
-        <v>17.37475867048624</v>
+        <v>17.32087680733413</v>
       </c>
       <c r="E117">
-        <v>16.68971362244361</v>
+        <v>18.10008624161458</v>
       </c>
       <c r="F117">
-        <v>17.76813801256261</v>
+        <v>18.13677452389947</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>18.05502680632755</v>
+        <v>17.92027837590505</v>
       </c>
       <c r="C118">
-        <v>18.09783413850007</v>
+        <v>16.63009879913102</v>
       </c>
       <c r="D118">
-        <v>17.37086980077586</v>
+        <v>17.32852048911678</v>
       </c>
       <c r="E118">
-        <v>16.6933746333416</v>
+        <v>18.07450061809283</v>
       </c>
       <c r="F118">
-        <v>17.75158487889623</v>
+        <v>18.11129481308361</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>18.02622316979233</v>
+        <v>17.89476313165478</v>
       </c>
       <c r="C119">
-        <v>18.06902614517903</v>
+        <v>16.63107518612973</v>
       </c>
       <c r="D119">
-        <v>17.36453835324833</v>
+        <v>17.33351702281347</v>
       </c>
       <c r="E119">
-        <v>16.69524644018066</v>
+        <v>18.04609387225152</v>
       </c>
       <c r="F119">
-        <v>17.7321441973051</v>
+        <v>18.08298024378815</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>17.99476040921754</v>
+        <v>17.86652410928356</v>
       </c>
       <c r="C120">
-        <v>18.03755261012706</v>
+        <v>16.63029059013031</v>
       </c>
       <c r="D120">
-        <v>17.3558231037057</v>
+        <v>17.33594311279795</v>
       </c>
       <c r="E120">
-        <v>16.69534657031489</v>
+        <v>18.01500604326081</v>
       </c>
       <c r="F120">
-        <v>17.7099374550518</v>
+        <v>18.05197142322498</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>17.96077127021681</v>
+        <v>17.83569155305209</v>
       </c>
       <c r="C121">
-        <v>18.0035466844655</v>
+        <v>16.62775145973819</v>
       </c>
       <c r="D121">
-        <v>17.34478315398077</v>
+        <v>17.33587391940709</v>
       </c>
       <c r="E121">
-        <v>16.69369326213703</v>
+        <v>17.98137063806569</v>
       </c>
       <c r="F121">
-        <v>17.68508225351887</v>
+        <v>18.01840238677763</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>17.9243821891276</v>
+        <v>17.80239022384137</v>
       </c>
       <c r="C122">
-        <v>17.96713517655762</v>
+        <v>16.62346543988512</v>
       </c>
       <c r="D122">
-        <v>17.33147773274305</v>
+        <v>17.33338300719412</v>
       </c>
       <c r="E122">
-        <v>16.69030545106332</v>
+        <v>17.94531488441336</v>
       </c>
       <c r="F122">
-        <v>17.6576922605369</v>
+        <v>17.98240086341084</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>17.88571358700735</v>
+        <v>17.76673954129528</v>
       </c>
       <c r="C123">
-        <v>17.928438828352</v>
+        <v>16.61744139328822</v>
       </c>
       <c r="D123">
-        <v>17.31596601457392</v>
+        <v>17.32854229544258</v>
       </c>
       <c r="E123">
-        <v>16.68520268308052</v>
+        <v>17.90695997386688</v>
       </c>
       <c r="F123">
-        <v>17.62787720657946</v>
+        <v>17.9440885522356</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>17.84488012691317</v>
+        <v>17.72885373708579</v>
       </c>
       <c r="C124">
-        <v>17.88757259705292</v>
+        <v>16.60968942713806</v>
       </c>
       <c r="D124">
-        <v>17.2983069713823</v>
+        <v>17.32142202038086</v>
       </c>
       <c r="E124">
-        <v>16.67840510257054</v>
+        <v>17.86642134513771</v>
       </c>
       <c r="F124">
-        <v>17.59574288655654</v>
+        <v>17.90358137762578</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>17.80199097501075</v>
+        <v>17.68884200939302</v>
       </c>
       <c r="C125">
-        <v>17.84464590600406</v>
+        <v>16.60022092600708</v>
       </c>
       <c r="D125">
-        <v>17.2785592294714</v>
+        <v>17.31209074691468</v>
       </c>
       <c r="E125">
-        <v>16.66993337048385</v>
+        <v>17.8238089273826</v>
       </c>
       <c r="F125">
-        <v>17.56139119304051</v>
+        <v>17.86098974336925</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>17.75715005004304</v>
+        <v>17.64680869011037</v>
       </c>
       <c r="C126">
-        <v>17.7997629158584</v>
+        <v>16.58904859236951</v>
       </c>
       <c r="D126">
-        <v>17.25678094480515</v>
+        <v>17.30061535063901</v>
       </c>
       <c r="E126">
-        <v>16.65980865474315</v>
+        <v>17.77922739172472</v>
       </c>
       <c r="F126">
-        <v>17.52492019794856</v>
+        <v>17.81641877742341</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>17.71045625627004</v>
+        <v>17.60285343230127</v>
       </c>
       <c r="C127">
-        <v>17.75302275369177</v>
+        <v>16.57618649608785</v>
       </c>
       <c r="D127">
-        <v>17.23302969550311</v>
+        <v>17.28706101791231</v>
       </c>
       <c r="E127">
-        <v>16.64805255072129</v>
+        <v>17.73277638729436</v>
       </c>
       <c r="F127">
-        <v>17.48642421807276</v>
+        <v>17.76996856505923</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>17.66200373885714</v>
+        <v>17.55707138248333</v>
       </c>
       <c r="C128">
-        <v>17.70451975253322</v>
+        <v>16.56165013373951</v>
       </c>
       <c r="D128">
-        <v>17.20736238425325</v>
+        <v>17.27149126503844</v>
       </c>
       <c r="E128">
-        <v>16.63468707742561</v>
+        <v>17.68455076720867</v>
       </c>
       <c r="F128">
-        <v>17.44599390382487</v>
+        <v>17.72173439401834</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>17.61188207019789</v>
+        <v>17.50955334996335</v>
       </c>
       <c r="C129">
-        <v>17.65434370014777</v>
+        <v>16.54545650017398</v>
       </c>
       <c r="D129">
-        <v>17.17983515881599</v>
+        <v>17.25396792716982</v>
       </c>
       <c r="E129">
-        <v>16.61973459877683</v>
+        <v>17.63464081133657</v>
       </c>
       <c r="F129">
-        <v>17.40371631946943</v>
+        <v>17.67180695630137</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>17.5601765227934</v>
+        <v>17.46038597617848</v>
       </c>
       <c r="C130">
-        <v>17.60258001603536</v>
+        <v>16.52762416961229</v>
       </c>
       <c r="D130">
-        <v>17.15050334145547</v>
+        <v>17.23455119595395</v>
       </c>
       <c r="E130">
-        <v>16.60321782379562</v>
+        <v>17.58313244518868</v>
       </c>
       <c r="F130">
-        <v>17.35967503377314</v>
+        <v>17.62027258218859</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>17.5069682038977</v>
+        <v>17.40965188941615</v>
       </c>
       <c r="C131">
-        <v>17.54930997836124</v>
+        <v>16.50817339132802</v>
       </c>
       <c r="D131">
-        <v>17.11942136651952</v>
+        <v>17.21329962804892</v>
       </c>
       <c r="E131">
-        <v>16.58515973419422</v>
+        <v>17.53010744496869</v>
       </c>
       <c r="F131">
-        <v>17.31395023812523</v>
+        <v>17.56721343195729</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>17.45233431167544</v>
+        <v>17.35742989350285</v>
       </c>
       <c r="C132">
-        <v>17.49461092903096</v>
+        <v>16.48712619015327</v>
       </c>
       <c r="D132">
-        <v>17.08664272900516</v>
+        <v>17.1902701816893</v>
       </c>
       <c r="E132">
-        <v>16.56558358131353</v>
+        <v>17.47564361950652</v>
       </c>
       <c r="F132">
-        <v>17.26661884327292</v>
+        <v>17.51270767720043</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>17.39634828760154</v>
+        <v>17.30379511567099</v>
       </c>
       <c r="C133">
-        <v>17.43855644178406</v>
+        <v>16.46450647036709</v>
       </c>
       <c r="D133">
-        <v>17.05221994005377</v>
+        <v>17.16551823715035</v>
       </c>
       <c r="E133">
-        <v>16.5445128256638</v>
+        <v>17.41981503435643</v>
       </c>
       <c r="F133">
-        <v>17.21775458901224</v>
+        <v>17.45682974029752</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>17.33907998635883</v>
+        <v>17.24881917233379</v>
       </c>
       <c r="C134">
-        <v>17.38121652571866</v>
+        <v>16.4403401118177</v>
       </c>
       <c r="D134">
-        <v>17.01620449126655</v>
+        <v>17.13909762627026</v>
       </c>
       <c r="E134">
-        <v>16.52197112087622</v>
+        <v>17.36269211927447</v>
       </c>
       <c r="F134">
-        <v>17.16742815126845</v>
+        <v>17.3996503965391</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>17.28059589542395</v>
+        <v>17.19257031669819</v>
       </c>
       <c r="C135">
-        <v>17.32265778234159</v>
+        <v>16.41465503967228</v>
       </c>
       <c r="D135">
-        <v>16.97864682688447</v>
+        <v>17.1110606626466</v>
       </c>
       <c r="E135">
-        <v>16.49798228376512</v>
+        <v>17.30434193632367</v>
       </c>
       <c r="F135">
-        <v>17.11570724829658</v>
+        <v>17.34123701857503</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>17.220959234968</v>
+        <v>17.1351135870677</v>
       </c>
       <c r="C136">
-        <v>17.26294356458498</v>
+        <v>16.38748124558623</v>
       </c>
       <c r="D136">
-        <v>16.93959632055463</v>
+        <v>17.08145817320977</v>
       </c>
       <c r="E136">
-        <v>16.47257026221322</v>
+        <v>17.24482823479437</v>
       </c>
       <c r="F136">
-        <v>17.0626567463686</v>
+        <v>17.28165368698928</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>17.16023017879061</v>
+        <v>17.07651095210159</v>
       </c>
       <c r="C137">
-        <v>17.20213415786008</v>
+        <v>16.35885073768218</v>
       </c>
       <c r="D137">
-        <v>16.89910126456869</v>
+        <v>17.05033952979652</v>
       </c>
       <c r="E137">
-        <v>16.44575910762157</v>
+        <v>17.18421170495928</v>
       </c>
       <c r="F137">
-        <v>17.00833876454077</v>
+        <v>17.2209613796471</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>17.09846594591084</v>
+        <v>17.01682144266421</v>
       </c>
       <c r="C138">
-        <v>17.14028689943246</v>
+        <v>16.32879738989168</v>
       </c>
       <c r="D138">
-        <v>16.85720883552417</v>
+        <v>17.01775268264538</v>
       </c>
       <c r="E138">
-        <v>16.41757294741939</v>
+        <v>17.12255005574165</v>
       </c>
       <c r="F138">
-        <v>16.95281277813546</v>
+        <v>17.15921811644288</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>17.03572098776704</v>
+        <v>16.95610128247794</v>
       </c>
       <c r="C139">
-        <v>17.07745633534352</v>
+        <v>16.29735668990026</v>
       </c>
       <c r="D139">
-        <v>16.81396511350822</v>
+        <v>16.98374419257359</v>
       </c>
       <c r="E139">
-        <v>16.38803596277396</v>
+        <v>17.05989821026082</v>
       </c>
       <c r="F139">
-        <v>16.89613571136558</v>
+        <v>17.09647907666813</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>16.97204709283816</v>
+        <v>16.89440403752617</v>
       </c>
       <c r="C140">
-        <v>17.01369436392908</v>
+        <v>16.26456539845551</v>
       </c>
       <c r="D140">
-        <v>16.76941503578494</v>
+        <v>16.94835926248395</v>
       </c>
       <c r="E140">
-        <v>16.35717236677533</v>
+        <v>16.99630840409631</v>
       </c>
       <c r="F140">
-        <v>16.83836205262872</v>
+        <v>17.03279678249002</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>16.90749352053783</v>
+        <v>16.83178069163623</v>
       </c>
       <c r="C141">
-        <v>16.94905034174404</v>
+        <v>16.23046114997758</v>
       </c>
       <c r="D141">
-        <v>16.72360245950988</v>
+        <v>16.91164176996799</v>
       </c>
       <c r="E141">
-        <v>16.32500638089218</v>
+        <v>16.93183033405871</v>
       </c>
       <c r="F141">
-        <v>16.77954393865752</v>
+        <v>16.96822117128907</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>16.84210714359057</v>
+        <v>16.76827985146655</v>
       </c>
       <c r="C142">
-        <v>16.88357122899022</v>
+        <v>16.1950820449928</v>
       </c>
       <c r="D142">
-        <v>16.67657009907257</v>
+        <v>16.87363430411543</v>
       </c>
       <c r="E142">
-        <v>16.29156222018679</v>
+        <v>16.86651128213702</v>
       </c>
       <c r="F142">
-        <v>16.71973125903804</v>
+        <v>16.9027997691962</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>16.77593252469541</v>
+        <v>16.70394772977518</v>
       </c>
       <c r="C143">
-        <v>16.81730169343023</v>
+        <v>16.15846627217391</v>
       </c>
       <c r="D143">
-        <v>16.62835958887513</v>
+        <v>16.83437820233499</v>
       </c>
       <c r="E143">
-        <v>16.25686407160339</v>
+        <v>16.80039620399955</v>
       </c>
       <c r="F143">
-        <v>16.65897173139342</v>
+        <v>16.83657777417185</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>16.70901207747278</v>
+        <v>16.63882841112564</v>
       </c>
       <c r="C144">
-        <v>16.75028421841037</v>
+        <v>16.12065179095018</v>
       </c>
       <c r="D144">
-        <v>16.57901145065215</v>
+        <v>16.79391357396521</v>
       </c>
       <c r="E144">
-        <v>16.22093607965086</v>
+        <v>16.73352789349925</v>
       </c>
       <c r="F144">
-        <v>16.5973110071212</v>
+        <v>16.7695981827405</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>16.6413861227465</v>
+        <v>16.57296377932443</v>
       </c>
       <c r="C145">
-        <v>16.68255922566764</v>
+        <v>16.08167608374974</v>
       </c>
       <c r="D145">
-        <v>16.52856512456482</v>
+        <v>16.75227934137774</v>
       </c>
       <c r="E145">
-        <v>16.18380233044821</v>
+        <v>16.66594702480854</v>
       </c>
       <c r="F145">
-        <v>16.53479273779448</v>
+        <v>16.70190190477049</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>16.57309303129054</v>
+        <v>16.50639378615015</v>
       </c>
       <c r="C146">
-        <v>16.61416515662976</v>
+        <v>16.04157597590434</v>
       </c>
       <c r="D146">
-        <v>16.47705897349335</v>
+        <v>16.70951326762942</v>
       </c>
       <c r="E146">
-        <v>16.14548683800297</v>
+        <v>16.59769231557248</v>
       </c>
       <c r="F146">
-        <v>16.47145866959701</v>
+        <v>16.63352783869145</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>16.50416928944869</v>
+        <v>16.43915639155814</v>
       </c>
       <c r="C147">
-        <v>16.54513857653582</v>
+        <v>16.00038750995635</v>
       </c>
       <c r="D147">
-        <v>16.42453029111938</v>
+        <v>16.66565198673207</v>
       </c>
       <c r="E147">
-        <v>16.10601353299863</v>
+        <v>16.52880056993873</v>
       </c>
       <c r="F147">
-        <v>16.40734871182376</v>
+        <v>16.56451300510454</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>16.43464960462165</v>
+        <v>16.37128778755302</v>
       </c>
       <c r="C148">
-        <v>16.47551427390565</v>
+        <v>15.95814587005739</v>
       </c>
       <c r="D148">
-        <v>16.37101532408174</v>
+        <v>16.6207310382435</v>
       </c>
       <c r="E148">
-        <v>16.06540625338169</v>
+        <v>16.45930681530641</v>
       </c>
       <c r="F148">
-        <v>16.34250102575357</v>
+        <v>16.49489260042441</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>16.3645669950004</v>
+        <v>16.30282236780733</v>
       </c>
       <c r="C149">
-        <v>16.40532532962533</v>
+        <v>15.91488533671576</v>
       </c>
       <c r="D149">
-        <v>16.3165492734582</v>
+        <v>16.57478488642835</v>
       </c>
       <c r="E149">
-        <v>16.02368873642628</v>
+        <v>16.38924435483724</v>
       </c>
       <c r="F149">
-        <v>16.2769520970759</v>
+        <v>16.42470011523591</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>16.29395285144422</v>
+        <v>16.2337929158146</v>
       </c>
       <c r="C150">
-        <v>16.33460321570468</v>
+        <v>15.87063926597545</v>
       </c>
       <c r="D150">
-        <v>16.26116633797131</v>
+        <v>16.52784696518647</v>
       </c>
       <c r="E150">
-        <v>15.98088461239603</v>
+        <v>16.31864487313047</v>
       </c>
       <c r="F150">
-        <v>16.21073679515276</v>
+        <v>16.35396740019233</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>16.22283704963954</v>
+        <v>16.16423059736396</v>
       </c>
       <c r="C151">
-        <v>16.26337786599391</v>
+        <v>15.82544008510206</v>
       </c>
       <c r="D151">
-        <v>16.20489970415106</v>
+        <v>16.47994969885249</v>
       </c>
       <c r="E151">
-        <v>15.93701740128977</v>
+        <v>16.24753850681162</v>
       </c>
       <c r="F151">
-        <v>16.14388846052408</v>
+        <v>16.28272474571759</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>16.15124798649512</v>
+        <v>16.09416511117135</v>
       </c>
       <c r="C152">
-        <v>16.1916777479138</v>
+        <v>15.77931929961132</v>
       </c>
       <c r="D152">
-        <v>16.14778158925636</v>
+        <v>16.43112453464443</v>
       </c>
       <c r="E152">
-        <v>15.89211051151236</v>
+        <v>16.17595391130683</v>
       </c>
       <c r="F152">
-        <v>16.0764389461934</v>
+        <v>16.21100097522522</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>16.07921268599645</v>
+        <v>16.02362468882719</v>
       </c>
       <c r="C153">
-        <v>16.11952993820869</v>
+        <v>15.73230750617817</v>
       </c>
       <c r="D153">
-        <v>16.08984324359408</v>
+        <v>16.38140196456157</v>
       </c>
       <c r="E153">
-        <v>15.84618724105881</v>
+        <v>16.1039183572381</v>
       </c>
       <c r="F153">
-        <v>16.00841871072653</v>
+        <v>16.13882348915205</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>16.00675683997558</v>
+        <v>15.95263621992685</v>
       </c>
       <c r="C154">
-        <v>16.04696018180201</v>
+        <v>15.6844344102767</v>
       </c>
       <c r="D154">
-        <v>16.03111498209774</v>
+        <v>16.33081156317457</v>
       </c>
       <c r="E154">
-        <v>15.79927078231406</v>
+        <v>16.03145776342684</v>
       </c>
       <c r="F154">
-        <v>15.93985684294032</v>
+        <v>16.06621836267103</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>15.93390488953856</v>
+        <v>15.88122528093352</v>
       </c>
       <c r="C155">
-        <v>15.97399299564734</v>
+        <v>15.63572884673571</v>
       </c>
       <c r="D155">
-        <v>15.97162619653538</v>
+        <v>16.27938200078786</v>
       </c>
       <c r="E155">
-        <v>15.75138423034031</v>
+        <v>15.95859680018209</v>
       </c>
       <c r="F155">
-        <v>15.8707811602392</v>
+        <v>15.99321038600046</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>15.86068008112361</v>
+        <v>15.80941621312821</v>
       </c>
       <c r="C156">
-        <v>15.90065164096069</v>
+        <v>15.58621880161447</v>
       </c>
       <c r="D156">
-        <v>15.9114053799773</v>
+        <v>16.22714108457514</v>
       </c>
       <c r="E156">
-        <v>15.7025505950603</v>
+        <v>15.8853589143497</v>
       </c>
       <c r="F156">
-        <v>15.80121822357927</v>
+        <v>15.91982314308354</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>15.78710451602188</v>
+        <v>15.73723218051439</v>
       </c>
       <c r="C157">
-        <v>15.82695833486783</v>
+        <v>15.53593143462396</v>
       </c>
       <c r="D157">
-        <v>15.8504801451624</v>
+        <v>16.17411576801623</v>
       </c>
       <c r="E157">
-        <v>15.65279281823575</v>
+        <v>15.8117664203782</v>
       </c>
       <c r="F157">
-        <v>15.73119343107261</v>
+        <v>15.8460790646782</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>15.7131992272234</v>
+        <v>15.66469521598661</v>
       </c>
       <c r="C158">
-        <v>15.75293412853586</v>
+        <v>15.48489310186001</v>
       </c>
       <c r="D158">
-        <v>15.788877245961</v>
+        <v>16.12033219165652</v>
       </c>
       <c r="E158">
-        <v>15.60213379573996</v>
+        <v>15.73784053002427</v>
       </c>
       <c r="F158">
-        <v>15.66073103068914</v>
+        <v>15.77199947798139</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>15.63898420439387</v>
+        <v>15.59182629474979</v>
       </c>
       <c r="C159">
-        <v>15.67859907417399</v>
+        <v>15.4331293783759</v>
       </c>
       <c r="D159">
-        <v>15.72662259824376</v>
+        <v>16.06581569158212</v>
       </c>
       <c r="E159">
-        <v>15.55059640512832</v>
+        <v>15.66360142423479</v>
       </c>
       <c r="F159">
-        <v>15.58985420710783</v>
+        <v>15.69760467756356</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>15.56447847063496</v>
+        <v>15.51864536087765</v>
       </c>
       <c r="C160">
-        <v>15.60397227621815</v>
+        <v>15.38066508054266</v>
       </c>
       <c r="D160">
-        <v>15.66374130019238</v>
+        <v>16.01059083789341</v>
       </c>
       <c r="E160">
-        <v>15.49820353904426</v>
+        <v>15.58906829368149</v>
       </c>
       <c r="F160">
-        <v>15.51858509255804</v>
+        <v>15.62291395379812</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>15.48970010814035</v>
+        <v>15.44517140588047</v>
       </c>
       <c r="C161">
-        <v>15.52907181952953</v>
+        <v>15.32752428806078</v>
       </c>
       <c r="D161">
-        <v>15.60025765427101</v>
+        <v>15.9546814349663</v>
       </c>
       <c r="E161">
-        <v>15.44497814178137</v>
+        <v>15.51425938674919</v>
       </c>
       <c r="F161">
-        <v>15.44694484669563</v>
+        <v>15.54794566171318</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>15.41466631966858</v>
+        <v>15.37142248072819</v>
       </c>
       <c r="C162">
-        <v>15.45391499535815</v>
+        <v>15.27373036508589</v>
       </c>
       <c r="D162">
-        <v>15.53619518690765</v>
+        <v>15.89811057633784</v>
       </c>
       <c r="E162">
-        <v>15.39094324698387</v>
+        <v>15.43919206571567</v>
       </c>
       <c r="F162">
-        <v>15.3749536674856</v>
+        <v>15.47271725202439</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>15.33939346321942</v>
+        <v>15.29741577976885</v>
       </c>
       <c r="C163">
-        <v>15.37851816797266</v>
+        <v>15.21930598103744</v>
       </c>
       <c r="D163">
-        <v>15.47157666965145</v>
+        <v>15.84090065492103</v>
       </c>
       <c r="E163">
-        <v>15.33612200892652</v>
+        <v>15.36388283179315</v>
       </c>
       <c r="F163">
-        <v>15.30263086283782</v>
+        <v>15.39724532238709</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>15.26389709244576</v>
+        <v>15.22316763891845</v>
       </c>
       <c r="C164">
-        <v>15.30289695174276</v>
+        <v>15.16427313118181</v>
       </c>
       <c r="D164">
-        <v>15.40642413990574</v>
+        <v>15.78307333496882</v>
       </c>
       <c r="E164">
-        <v>15.28053771778729</v>
+        <v>15.2883473897573</v>
       </c>
       <c r="F164">
-        <v>15.22999486302684</v>
+        <v>15.3215456591337</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>15.18819200563336</v>
+        <v>15.14869362292236</v>
       </c>
       <c r="C165">
-        <v>15.22706617691193</v>
+        <v>15.10865315642781</v>
       </c>
       <c r="D165">
-        <v>15.34075891958408</v>
+        <v>15.72464966794518</v>
       </c>
       <c r="E165">
-        <v>15.22421378607382</v>
+        <v>15.21260066324043</v>
       </c>
       <c r="F165">
-        <v>15.15706328365953</v>
+        <v>15.24563325689818</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>15.1122922669017</v>
+        <v>15.07400851463514</v>
       </c>
       <c r="C166">
-        <v>15.15103993308361</v>
+        <v>15.05246676241366</v>
       </c>
       <c r="D166">
-        <v>15.27460163699014</v>
+        <v>15.66565006226266</v>
       </c>
       <c r="E166">
-        <v>15.16717369637871</v>
+        <v>15.13665685430086</v>
       </c>
       <c r="F166">
-        <v>15.08385293981163</v>
+        <v>15.16952240219032</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>15.03621125553304</v>
+        <v>14.99912640093334</v>
       </c>
       <c r="C167">
-        <v>15.07483165356461</v>
+        <v>14.99573403828036</v>
       </c>
       <c r="D167">
-        <v>15.20797224383198</v>
+        <v>15.60609424201994</v>
       </c>
       <c r="E167">
-        <v>15.10944090832919</v>
+        <v>15.06052946062693</v>
       </c>
       <c r="F167">
-        <v>15.01037990086052</v>
+        <v>15.09322666862613</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>14.95996168026485</v>
+        <v>14.92406065870166</v>
       </c>
       <c r="C168">
-        <v>14.99845407541888</v>
+        <v>14.93847447494206</v>
       </c>
       <c r="D168">
-        <v>15.14089003694366</v>
+        <v>15.54600137527806</v>
       </c>
       <c r="E168">
-        <v>15.05103873691435</v>
+        <v>14.98423132356167</v>
       </c>
       <c r="F168">
-        <v>14.93665950627396</v>
+        <v>15.01675895013966</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>14.88355565429829</v>
+        <v>14.8488240355299</v>
       </c>
       <c r="C169">
-        <v>14.92191935777781</v>
+        <v>14.88070698272526</v>
       </c>
       <c r="D169">
-        <v>15.07337367495943</v>
+        <v>15.48539005342289</v>
       </c>
       <c r="E169">
-        <v>14.99199022205695</v>
+        <v>14.90777465146407</v>
       </c>
       <c r="F169">
-        <v>14.86270641268909</v>
+        <v>14.94013157451474</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>14.80700466424487</v>
+        <v>14.7734286350955</v>
       </c>
       <c r="C170">
-        <v>14.84523903042009</v>
+        <v>14.82244990856235</v>
       </c>
       <c r="D170">
-        <v>15.00544119868702</v>
+        <v>15.42427824779509</v>
       </c>
       <c r="E170">
-        <v>14.93231801051967</v>
+        <v>14.83117105333294</v>
       </c>
       <c r="F170">
-        <v>14.78853461180999</v>
+        <v>14.86335616381413</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>14.73031965478132</v>
+        <v>14.69788599205867</v>
       </c>
       <c r="C171">
-        <v>14.76842406826275</v>
+        <v>14.76372105268788</v>
       </c>
       <c r="D171">
-        <v>14.93711004826855</v>
+        <v>15.36268339763267</v>
       </c>
       <c r="E171">
-        <v>14.87204426317279</v>
+        <v>14.75443157106843</v>
       </c>
       <c r="F171">
-        <v>14.71415746969605</v>
+        <v>14.78644385117436</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>14.65351106997</v>
+        <v>14.62220705703704</v>
       </c>
       <c r="C172">
-        <v>14.69148492225372</v>
+        <v>14.70453768752401</v>
       </c>
       <c r="D172">
-        <v>14.86839707947569</v>
+        <v>15.3006224288286</v>
       </c>
       <c r="E172">
-        <v>14.81119059081843</v>
+        <v>14.67756668698047</v>
       </c>
       <c r="F172">
-        <v>14.63958774736529</v>
+        <v>14.70940521740348</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>14.57658873861086</v>
+        <v>14.54640226607461</v>
       </c>
       <c r="C173">
-        <v>14.61443148351377</v>
+        <v>14.64491656892411</v>
       </c>
       <c r="D173">
-        <v>14.79931858528086</v>
+        <v>15.23811171457228</v>
       </c>
       <c r="E173">
-        <v>14.74977801555322</v>
+        <v>14.60058639044525</v>
       </c>
       <c r="F173">
-        <v>14.56483763224925</v>
+        <v>14.63225025408059</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>14.49956211480687</v>
+        <v>14.47048152599655</v>
       </c>
       <c r="C174">
-        <v>14.53727320163933</v>
+        <v>14.58487395220152</v>
       </c>
       <c r="D174">
-        <v>14.72989031535486</v>
+        <v>15.17516712408787</v>
       </c>
       <c r="E174">
-        <v>14.68782695156872</v>
+        <v>14.52350017884703</v>
       </c>
       <c r="F174">
-        <v>14.48991876181045</v>
+        <v>14.55498854109169</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>14.42244014974021</v>
+        <v>14.39445427659226</v>
       </c>
       <c r="C175">
-        <v>14.46001903770782</v>
+        <v>14.52442561218424</v>
       </c>
       <c r="D175">
-        <v>14.66012747208966</v>
+        <v>15.11180406295317</v>
       </c>
       <c r="E175">
-        <v>14.62535719990557</v>
+        <v>14.44631704979202</v>
       </c>
       <c r="F175">
-        <v>14.41484224733504</v>
+        <v>14.47762914096656</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>14.34523130934266</v>
+        <v>14.31832948197938</v>
       </c>
       <c r="C176">
-        <v>14.38267752964194</v>
+        <v>14.46358684046948</v>
       </c>
       <c r="D176">
-        <v>14.59004476312363</v>
+        <v>15.04803744147447</v>
       </c>
       <c r="E176">
-        <v>14.56238795307286</v>
+        <v>14.36904562285861</v>
       </c>
       <c r="F176">
-        <v>14.33961870066387</v>
+        <v>14.40018067247936</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>14.26794371062232</v>
+        <v>14.24211567749979</v>
       </c>
       <c r="C177">
-        <v>14.30525678743689</v>
+        <v>14.40237248514355</v>
       </c>
       <c r="D177">
-        <v>14.51965639449624</v>
+        <v>14.983881701884</v>
       </c>
       <c r="E177">
-        <v>14.49893780407452</v>
+        <v>14.29169405177683</v>
       </c>
       <c r="F177">
-        <v>14.26425824120807</v>
+        <v>14.32265135424167</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>14.19058502257176</v>
+        <v>14.1658209738402</v>
       </c>
       <c r="C178">
-        <v>14.22776450983819</v>
+        <v>14.34079695089415</v>
       </c>
       <c r="D178">
-        <v>14.44897607015361</v>
+        <v>14.91935086739189</v>
       </c>
       <c r="E178">
-        <v>14.43502475954002</v>
+        <v>14.21427006861188</v>
       </c>
       <c r="F178">
-        <v>14.18877054359494</v>
+        <v>14.24504895947026</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>14.11316254815146</v>
+        <v>14.08945308808495</v>
       </c>
       <c r="C179">
-        <v>14.15020804203421</v>
+        <v>14.27887420697224</v>
       </c>
       <c r="D179">
-        <v>14.37801705307548</v>
+        <v>14.85445851533755</v>
       </c>
       <c r="E179">
-        <v>14.37066625492946</v>
+        <v>14.13678109485852</v>
       </c>
       <c r="F179">
-        <v>14.11316485803487</v>
+        <v>14.16738091688209</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>14.03568324638423</v>
+        <v>14.01301935748562</v>
       </c>
       <c r="C180">
-        <v>14.07259433979561</v>
+        <v>14.21661781318691</v>
       </c>
       <c r="D180">
-        <v>14.30679214231107</v>
+        <v>14.78921779140252</v>
       </c>
       <c r="E180">
-        <v>14.30587917042708</v>
+        <v>14.05923411097571</v>
       </c>
       <c r="F180">
-        <v>14.03744996538262</v>
+        <v>14.08965427642104</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>13.95815369638076</v>
+        <v>13.93652675886668</v>
       </c>
       <c r="C181">
-        <v>13.99493004349578</v>
+        <v>14.15404092561524</v>
       </c>
       <c r="D181">
-        <v>14.23531368527643</v>
+        <v>14.72364146433815</v>
       </c>
       <c r="E181">
-        <v>14.24067984738272</v>
+        <v>13.98163578713893</v>
       </c>
       <c r="F181">
-        <v>13.96163431302564</v>
+        <v>14.01187573126568</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>13.88058018873436</v>
+        <v>13.8599819286903</v>
       </c>
       <c r="C182">
-        <v>13.9172214477769</v>
+        <v>14.09115630579593</v>
       </c>
       <c r="D182">
-        <v>14.16359362798056</v>
+        <v>14.65774189802941</v>
       </c>
       <c r="E182">
-        <v>14.17508410458786</v>
+        <v>13.90399248037</v>
       </c>
       <c r="F182">
-        <v>13.88572596362554</v>
+        <v>13.93405167584838</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>13.80296869224926</v>
+        <v>13.78339117399595</v>
       </c>
       <c r="C183">
-        <v>13.83947453958055</v>
+        <v>14.02797633339926</v>
       </c>
       <c r="D183">
-        <v>14.0916434901191</v>
+        <v>14.59153104950097</v>
       </c>
       <c r="E183">
-        <v>14.10910725451848</v>
+        <v>13.82631018280771</v>
       </c>
       <c r="F183">
-        <v>13.80973253195475</v>
+        <v>13.85618814765977</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>13.72532487017258</v>
+        <v>13.7067604963796</v>
       </c>
       <c r="C184">
-        <v>13.76169502001403</v>
+        <v>13.96451302315594</v>
       </c>
       <c r="D184">
-        <v>14.01947439237679</v>
+        <v>14.52502054526129</v>
       </c>
       <c r="E184">
-        <v>14.0427641192314</v>
+        <v>13.748594635779</v>
       </c>
       <c r="F184">
-        <v>13.73366138398253</v>
+        <v>13.7782909143725</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>13.64765413580119</v>
+        <v>13.63009559681838</v>
       </c>
       <c r="C185">
-        <v>13.68388829106046</v>
+        <v>13.90077803641705</v>
       </c>
       <c r="D185">
-        <v>13.94709708411304</v>
+        <v>14.45822164169916</v>
       </c>
       <c r="E185">
-        <v>13.97606904582539</v>
+        <v>13.6708512829691</v>
       </c>
       <c r="F185">
-        <v>13.65751952799756</v>
+        <v>13.70036546088829</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>13.56996160209111</v>
+        <v>13.55340190179891</v>
       </c>
       <c r="C186">
-        <v>13.60605950787911</v>
+        <v>13.83678267841016</v>
       </c>
       <c r="D186">
-        <v>13.87452192651918</v>
+        <v>14.39114521498056</v>
       </c>
       <c r="E186">
-        <v>13.90903592151131</v>
+        <v>13.59308527876821</v>
       </c>
       <c r="F186">
-        <v>13.58131359313937</v>
+        <v>13.62241697309043</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>13.49225214318516</v>
+        <v>13.47668456389924</v>
       </c>
       <c r="C187">
-        <v>13.52821355121678</v>
+        <v>13.77253792409574</v>
       </c>
       <c r="D187">
-        <v>13.8017589302279</v>
+        <v>14.32380184497782</v>
       </c>
       <c r="E187">
-        <v>13.84167818824776</v>
+        <v>13.51530155277651</v>
       </c>
       <c r="F187">
-        <v>13.5050499786771</v>
+        <v>13.5444504120788</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>13.41453040532017</v>
+        <v>13.39994848866656</v>
       </c>
       <c r="C188">
-        <v>13.45035507370157</v>
+        <v>13.70805442614788</v>
       </c>
       <c r="D188">
-        <v>13.72881776286256</v>
+        <v>14.25620177502701</v>
       </c>
       <c r="E188">
-        <v>13.77400885706193</v>
+        <v>13.4375047754</v>
       </c>
       <c r="F188">
-        <v>13.42873476904122</v>
+        <v>13.4664704736255</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>13.33680077157825</v>
+        <v>13.32319833245104</v>
       </c>
       <c r="C189">
-        <v>13.37248849407032</v>
+        <v>13.64334251369042</v>
       </c>
       <c r="D189">
-        <v>13.65570773819306</v>
+        <v>14.18835490599735</v>
       </c>
       <c r="E189">
-        <v>13.70604052182986</v>
+        <v>13.35969938405703</v>
       </c>
       <c r="F189">
-        <v>13.3523737426395</v>
+        <v>13.38848161981476</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>13.25906743902488</v>
+        <v>13.24643852898878</v>
       </c>
       <c r="C190">
-        <v>13.29461800553598</v>
+        <v>13.57841221187688</v>
       </c>
       <c r="D190">
-        <v>13.58243786381675</v>
+        <v>14.12027086213071</v>
       </c>
       <c r="E190">
-        <v>13.63778537249276</v>
+        <v>13.28188961890237</v>
       </c>
       <c r="F190">
-        <v>13.27597245347211</v>
+        <v>13.31048810599746</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>13.18133438375907</v>
+        <v>13.16967328558767</v>
       </c>
       <c r="C191">
-        <v>13.21674760595389</v>
+        <v>13.5132732524075</v>
       </c>
       <c r="D191">
-        <v>13.5090168290367</v>
+        <v>14.05195896534286</v>
       </c>
       <c r="E191">
-        <v>13.56925520796567</v>
+        <v>13.20407947540478</v>
       </c>
       <c r="F191">
-        <v>13.19953618583677</v>
+        <v>13.2324939536223</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>13.10360537269766</v>
+        <v>13.09290660754737</v>
       </c>
       <c r="C192">
-        <v>13.13888107847572</v>
+        <v>13.44793507612454</v>
       </c>
       <c r="D192">
-        <v>13.4354530051014</v>
+        <v>13.9834282300883</v>
       </c>
       <c r="E192">
-        <v>13.50046144864149</v>
+        <v>13.12627277203238</v>
       </c>
       <c r="F192">
-        <v>13.1230699685533</v>
+        <v>13.15450300514894</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>13.02588400538625</v>
+        <v>13.01614228795902</v>
       </c>
       <c r="C193">
-        <v>13.06102203358514</v>
+        <v>13.38240684292064</v>
       </c>
       <c r="D193">
-        <v>13.36175448929819</v>
+        <v>13.91468741537986</v>
       </c>
       <c r="E193">
-        <v>13.43141514764477</v>
+        <v>13.04847314465643</v>
       </c>
       <c r="F193">
-        <v>13.04657862771136</v>
+        <v>13.07651890442589</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>12.94817368516145</v>
+        <v>12.9393839486368</v>
       </c>
       <c r="C194">
-        <v>12.98317389302605</v>
+        <v>13.3166974451985</v>
       </c>
       <c r="D194">
-        <v>13.2879290872285</v>
+        <v>13.84574500827278</v>
       </c>
       <c r="E194">
-        <v>13.36212700475083</v>
+        <v>12.97068401843562</v>
       </c>
       <c r="F194">
-        <v>12.97006675531371</v>
+        <v>12.99854510518309</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>12.87047765304801</v>
+        <v>12.86263503605391</v>
       </c>
       <c r="C195">
-        <v>12.9053399090657</v>
+        <v>13.25081551456394</v>
       </c>
       <c r="D195">
-        <v>13.2139843223686</v>
+        <v>13.77660921026028</v>
       </c>
       <c r="E195">
-        <v>13.29260737852789</v>
+        <v>12.89290867703613</v>
       </c>
       <c r="F195">
-        <v>12.89353872867594</v>
+        <v>12.92058490670386</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>12.79279899396698</v>
+        <v>12.78589878722074</v>
       </c>
       <c r="C196">
-        <v>12.8275231772843</v>
+        <v>13.18476942126683</v>
       </c>
       <c r="D196">
-        <v>13.13992746906597</v>
+        <v>13.70728798996849</v>
       </c>
       <c r="E196">
-        <v>13.22286629206418</v>
+        <v>12.81515023069164</v>
       </c>
       <c r="F196">
-        <v>12.81699874751192</v>
+        <v>12.84264142635312</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>12.71514062111429</v>
+        <v>12.70917832853639</v>
       </c>
       <c r="C197">
-        <v>12.74972662854647</v>
+        <v>13.11856729280441</v>
       </c>
       <c r="D197">
-        <v>13.06576553513209</v>
+        <v>13.63778907261703</v>
       </c>
       <c r="E197">
-        <v>13.15291344723269</v>
+        <v>12.73741161978017</v>
       </c>
       <c r="F197">
-        <v>12.74045079881452</v>
+        <v>12.76471763590946</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>12.63750532122577</v>
+        <v>12.63247663095129</v>
       </c>
       <c r="C198">
-        <v>12.6719530588201</v>
+        <v>13.05221701994841</v>
       </c>
       <c r="D198">
-        <v>12.9915052812532</v>
+        <v>13.56811992656565</v>
       </c>
       <c r="E198">
-        <v>13.08275823547002</v>
+        <v>12.65969565776625</v>
       </c>
       <c r="F198">
-        <v>12.66389868678733</v>
+        <v>12.68681636151606</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>12.55989573383498</v>
+        <v>12.55579645913725</v>
       </c>
       <c r="C199">
-        <v>12.59420511367287</v>
+        <v>12.98572625742011</v>
       </c>
       <c r="D199">
-        <v>12.91715323959697</v>
+        <v>13.49828779867427</v>
       </c>
       <c r="E199">
-        <v>13.01240974687812</v>
+        <v>12.5820050056939</v>
       </c>
       <c r="F199">
-        <v>12.5873460630016</v>
+        <v>12.60894027274504</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>12.48231435927855</v>
+        <v>12.47914049009549</v>
       </c>
       <c r="C200">
-        <v>12.51648531285716</v>
+        <v>12.91910243760738</v>
       </c>
       <c r="D200">
-        <v>12.84271569890281</v>
+        <v>13.42829971973721</v>
       </c>
       <c r="E200">
-        <v>12.94187677997356</v>
+        <v>12.50434218959602</v>
       </c>
       <c r="F200">
-        <v>12.51079638157353</v>
+        <v>12.53109192247337</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>12.40476358718394</v>
+        <v>12.40251127506991</v>
       </c>
       <c r="C201">
-        <v>12.43879604835195</v>
+        <v>12.85235277573154</v>
       </c>
       <c r="D201">
-        <v>12.76819873393913</v>
+        <v>13.35816248948598</v>
       </c>
       <c r="E201">
-        <v>12.87116785056537</v>
+        <v>12.42670961993024</v>
       </c>
       <c r="F201">
-        <v>12.43425294492548</v>
+        <v>12.45327372583668</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>12.32724567252394</v>
+        <v>12.3259112000004</v>
       </c>
       <c r="C202">
-        <v>12.36113958770063</v>
+        <v>12.78548428060665</v>
       </c>
       <c r="D202">
-        <v>12.69360820836657</v>
+        <v>13.28788269894786</v>
       </c>
       <c r="E202">
-        <v>12.80029120166765</v>
+        <v>12.34910957054339</v>
       </c>
       <c r="F202">
-        <v>12.35771891492939</v>
+        <v>12.37548797513111</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>12.24976276368642</v>
+        <v>12.24934253987577</v>
       </c>
       <c r="C203">
-        <v>12.28351809163049</v>
+        <v>12.71850374690761</v>
       </c>
       <c r="D203">
-        <v>12.61894976431767</v>
+        <v>13.21746674627064</v>
       </c>
       <c r="E203">
-        <v>12.72925481171463</v>
+        <v>12.27154421131299</v>
       </c>
       <c r="F203">
-        <v>12.28119729672657</v>
+        <v>12.29773685627737</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>12.17231690441268</v>
+        <v>12.17280747838804</v>
       </c>
       <c r="C204">
-        <v>12.20593360293015</v>
+        <v>12.65141777582424</v>
       </c>
       <c r="D204">
-        <v>12.54422885916921</v>
+        <v>13.14692082206322</v>
       </c>
       <c r="E204">
-        <v>12.65806640400907</v>
+        <v>12.19401560534787</v>
       </c>
       <c r="F204">
-        <v>12.20469096391654</v>
+        <v>12.22002243101543</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>12.09491002214801</v>
+        <v>12.096308069728</v>
       </c>
       <c r="C205">
-        <v>12.12838806944889</v>
+        <v>12.58423277952668</v>
       </c>
       <c r="D205">
-        <v>12.46945075375686</v>
+        <v>13.07625092248074</v>
       </c>
       <c r="E205">
-        <v>12.58673345359453</v>
+        <v>12.11652569637141</v>
       </c>
       <c r="F205">
-        <v>12.12820266223705</v>
+        <v>12.14234666913305</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>12.01754396000863</v>
+        <v>12.01984625667671</v>
       </c>
       <c r="C206">
-        <v>12.05088333575606</v>
+        <v>12.51695495481667</v>
       </c>
       <c r="D206">
-        <v>12.39462051293471</v>
+        <v>13.00546287046477</v>
       </c>
       <c r="E206">
-        <v>12.51526319568845</v>
+        <v>12.03907634639145</v>
       </c>
       <c r="F206">
-        <v>12.05173498724845</v>
+        <v>12.06471143664168</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>11.9402204619548</v>
+        <v>11.94342390467573</v>
       </c>
       <c r="C207">
-        <v>11.97342115302153</v>
+        <v>12.44959035667804</v>
       </c>
       <c r="D207">
-        <v>12.3197430352789</v>
+        <v>12.93456230184146</v>
       </c>
       <c r="E207">
-        <v>12.4436626343072</v>
+        <v>11.9616693175061</v>
       </c>
       <c r="F207">
-        <v>11.97529043650624</v>
+        <v>11.98711849957573</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>11.86294117917165</v>
+        <v>11.86704277509171</v>
       </c>
       <c r="C208">
-        <v>11.89600318672815</v>
+        <v>12.38214486209245</v>
       </c>
       <c r="D208">
-        <v>12.24482304031663</v>
+        <v>12.86355467185527</v>
       </c>
       <c r="E208">
-        <v>12.37193854878567</v>
+        <v>11.88430627387918</v>
       </c>
       <c r="F208">
-        <v>11.89887138969702</v>
+        <v>11.9095695434896</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>11.78570768746871</v>
+        <v>11.79070452846379</v>
       </c>
       <c r="C209">
-        <v>11.81863101184913</v>
+        <v>12.31462416881976</v>
       </c>
       <c r="D209">
-        <v>12.1698650751617</v>
+        <v>12.79244528089554</v>
       </c>
       <c r="E209">
-        <v>12.30009750025388</v>
+        <v>11.80698880793876</v>
       </c>
       <c r="F209">
-        <v>11.82248010108013</v>
+        <v>11.83206615973485</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>11.70852147338406</v>
+        <v>11.71441076030226</v>
       </c>
       <c r="C210">
-        <v>11.74130612935204</v>
+        <v>12.24703381591306</v>
       </c>
       <c r="D210">
-        <v>12.09487353597031</v>
+        <v>12.72123926013519</v>
       </c>
       <c r="E210">
-        <v>12.22814583975551</v>
+        <v>11.72971842259021</v>
       </c>
       <c r="F210">
-        <v>11.7461187375361</v>
+        <v>11.75460986234898</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>11.63138395205692</v>
+        <v>11.63816298055354</v>
       </c>
       <c r="C211">
-        <v>11.66402995246009</v>
+        <v>12.17937917468701</v>
       </c>
       <c r="D211">
-        <v>12.01985265571389</v>
+        <v>12.64994157302505</v>
       </c>
       <c r="E211">
-        <v>12.15608971519951</v>
+        <v>11.65249654305449</v>
       </c>
       <c r="F211">
-        <v>11.66978936187635</v>
+        <v>11.67720209019559</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>11.55429646791533</v>
+        <v>11.56196260889492</v>
       </c>
       <c r="C212">
-        <v>11.58680383006662</v>
+        <v>12.11166546927762</v>
       </c>
       <c r="D212">
-        <v>11.94480651748653</v>
+        <v>12.57855704469804</v>
       </c>
       <c r="E212">
-        <v>12.08393507763812</v>
+        <v>11.57532452866459</v>
       </c>
       <c r="F212">
-        <v>11.59349392512696</v>
+        <v>11.5998442004632</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>11.4772602881614</v>
+        <v>11.48581101276661</v>
       </c>
       <c r="C213">
-        <v>11.50962904539058</v>
+        <v>12.04389776702607</v>
       </c>
       <c r="D213">
-        <v>11.86973906626053</v>
+        <v>12.50709034714278</v>
       </c>
       <c r="E213">
-        <v>12.01168769211717</v>
+        <v>11.49820365893399</v>
       </c>
       <c r="F213">
-        <v>11.51723430547287</v>
+        <v>11.52253748913497</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>11.40027662343671</v>
+        <v>11.40970948858981</v>
       </c>
       <c r="C214">
-        <v>11.43250681338931</v>
+        <v>11.97608099014437</v>
       </c>
       <c r="D214">
-        <v>11.79465409803081</v>
+        <v>12.4355459970425</v>
       </c>
       <c r="E214">
-        <v>11.93935313269134</v>
+        <v>11.4211351540022</v>
       </c>
       <c r="F214">
-        <v>11.44101228792559</v>
+        <v>11.44528318082753</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>11.32334661782258</v>
+        <v>11.3336592380748</v>
       </c>
       <c r="C215">
-        <v>11.3554382668402</v>
+        <v>11.90821993063412</v>
       </c>
       <c r="D215">
-        <v>11.71955528034528</v>
+        <v>12.36392838693375</v>
       </c>
       <c r="E215">
-        <v>11.86693680408669</v>
+        <v>11.34412017157325</v>
       </c>
       <c r="F215">
-        <v>11.36482956478602</v>
+        <v>11.36808243552968</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>11.24647135337785</v>
+        <v>11.25766143202851</v>
       </c>
       <c r="C216">
-        <v>11.27842451266615</v>
+        <v>11.84031923997051</v>
       </c>
       <c r="D216">
-        <v>11.64444615296038</v>
+        <v>12.29224177081214</v>
       </c>
       <c r="E216">
-        <v>11.79444391996815</v>
+        <v>11.26715980148324</v>
       </c>
       <c r="F216">
-        <v>11.28868776118849</v>
+        <v>11.29093635829541</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>11.16965186199033</v>
+        <v>11.18171717484655</v>
       </c>
       <c r="C217">
-        <v>11.20146659750458</v>
+        <v>11.77238344471924</v>
       </c>
       <c r="D217">
-        <v>11.569330120902</v>
+        <v>12.22049025989751</v>
       </c>
       <c r="E217">
-        <v>11.72187952349543</v>
+        <v>11.19025508542243</v>
       </c>
       <c r="F217">
-        <v>11.21258842093772</v>
+        <v>11.21384598898343</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>11.09288911507386</v>
+        <v>11.1058274995294</v>
       </c>
       <c r="C218">
-        <v>11.12456548578659</v>
+        <v>11.70441693929552</v>
       </c>
       <c r="D218">
-        <v>11.49421047872034</v>
+        <v>12.14867785306202</v>
       </c>
       <c r="E218">
-        <v>11.64924852715636</v>
+        <v>11.11340700763704</v>
       </c>
       <c r="F218">
-        <v>11.13653300853756</v>
+        <v>11.13681231972481</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>11.01618403677825</v>
+        <v>11.02999339673069</v>
       </c>
       <c r="C219">
-        <v>11.04772209766996</v>
+        <v>11.63642399548521</v>
       </c>
       <c r="D219">
-        <v>11.41909040216865</v>
+        <v>12.07680842400037</v>
       </c>
       <c r="E219">
-        <v>11.57655567135181</v>
+        <v>11.03661649675965</v>
       </c>
       <c r="F219">
-        <v>11.06052292952373</v>
+        <v>11.05983628863086</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>10.93953750357546</v>
+        <v>10.95421580775754</v>
       </c>
       <c r="C220">
-        <v>10.97093733094976</v>
+        <v>11.56840877786037</v>
       </c>
       <c r="D220">
-        <v>11.3439729487018</v>
+        <v>12.00488571574385</v>
       </c>
       <c r="E220">
-        <v>11.50380554007199</v>
+        <v>10.95988443934433</v>
       </c>
       <c r="F220">
-        <v>10.98455951773616</v>
+        <v>10.98291878124158</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>10.86295034025493</v>
+        <v>10.8784956150807</v>
       </c>
       <c r="C221">
-        <v>10.89421202947934</v>
+        <v>11.50037533321567</v>
       </c>
       <c r="D221">
-        <v>11.26886107642822</v>
+        <v>11.93291336934127</v>
       </c>
       <c r="E221">
-        <v>11.43100256887132</v>
+        <v>10.88321167039794</v>
       </c>
       <c r="F221">
-        <v>10.90864404039308</v>
+        <v>10.90606064135304</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>10.78642333362393</v>
+        <v>10.80283365642733</v>
       </c>
       <c r="C222">
-        <v>10.81754695020894</v>
+        <v>11.43232758195567</v>
       </c>
       <c r="D222">
-        <v>11.19375763560967</v>
+        <v>11.86089491217726</v>
       </c>
       <c r="E222">
-        <v>11.35815106541447</v>
+        <v>10.80659898063306</v>
       </c>
       <c r="F222">
-        <v>10.83277771200923</v>
+        <v>10.82926265992276</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>10.70995722583348</v>
+        <v>10.72723073168898</v>
       </c>
       <c r="C223">
-        <v>10.74094285708006</v>
+        <v>11.36426934156462</v>
       </c>
       <c r="D223">
-        <v>11.11866537311063</v>
+        <v>11.78883375460114</v>
       </c>
       <c r="E223">
-        <v>11.28525519357294</v>
+        <v>10.73004712270716</v>
       </c>
       <c r="F223">
-        <v>10.75696168364491</v>
+        <v>10.75252558988895</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>10.633552717735</v>
+        <v>10.65168759311548</v>
       </c>
       <c r="C224">
-        <v>10.66440046030689</v>
+        <v>11.29620432982117</v>
       </c>
       <c r="D224">
-        <v>11.04358694579404</v>
+        <v>11.71673321082138</v>
       </c>
       <c r="E224">
-        <v>11.21231898785128</v>
+        <v>10.65355680275309</v>
       </c>
       <c r="F224">
-        <v>10.68119705015798</v>
+        <v>10.67585014805983</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>10.55721047630011</v>
+        <v>10.57620495060413</v>
       </c>
       <c r="C225">
-        <v>10.58792042620912</v>
+        <v>11.22813616311276</v>
       </c>
       <c r="D225">
-        <v>10.96852491250462</v>
+        <v>11.64459649422684</v>
       </c>
       <c r="E225">
-        <v>11.13934635150718</v>
+        <v>10.577128693468</v>
       </c>
       <c r="F225">
-        <v>10.60548485986844</v>
+        <v>10.59923701497219</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>10.48093112387522</v>
+        <v>10.5007834830042</v>
       </c>
       <c r="C226">
-        <v>10.5115033749879</v>
+        <v>11.16006836017726</v>
       </c>
       <c r="D226">
-        <v>10.8934817428403</v>
+        <v>11.57242671288434</v>
       </c>
       <c r="E226">
-        <v>11.06634106302755</v>
+        <v>10.50076343116635</v>
       </c>
       <c r="F226">
-        <v>10.52982610472301</v>
+        <v>10.52268681349962</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>10.40471525538205</v>
+        <v>10.42542382944045</v>
       </c>
       <c r="C227">
-        <v>10.43514991064334</v>
+        <v>11.092004345456</v>
       </c>
       <c r="D227">
-        <v>10.81845982423066</v>
+        <v>11.50022688426678</v>
       </c>
       <c r="E227">
-        <v>10.9933067799493</v>
+        <v>10.42446161294445</v>
       </c>
       <c r="F227">
-        <v>10.45422172991849</v>
+        <v>10.44620015465535</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>10.32856343517088</v>
+        <v>10.35012658871641</v>
       </c>
       <c r="C228">
-        <v>10.35886059912994</v>
+        <v>11.02394745194951</v>
       </c>
       <c r="D228">
-        <v>10.74346145486504</v>
+        <v>11.42799993658436</v>
       </c>
       <c r="E228">
-        <v>10.92024704135288</v>
+        <v>10.34822380833998</v>
       </c>
       <c r="F228">
-        <v>10.37867263880902</v>
+        <v>10.36977761852548</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>10.25247619887076</v>
+        <v>10.27489233645993</v>
       </c>
       <c r="C229">
-        <v>10.28263597169796</v>
+        <v>10.95590092407056</v>
       </c>
       <c r="D229">
-        <v>10.66848885712334</v>
+        <v>11.35574870316915</v>
       </c>
       <c r="E229">
-        <v>10.84716527953406</v>
+        <v>10.27205055359401</v>
       </c>
       <c r="F229">
-        <v>10.30317968472519</v>
+        <v>10.29341975651208</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>10.17645403381826</v>
+        <v>10.19972161453341</v>
       </c>
       <c r="C230">
-        <v>10.20647653464851</v>
+        <v>10.88786792241457</v>
       </c>
       <c r="D230">
-        <v>10.59354417738657</v>
+        <v>11.28347593238357</v>
       </c>
       <c r="E230">
-        <v>10.77406481599354</v>
+        <v>10.19594235307399</v>
       </c>
       <c r="F230">
-        <v>10.22774368248882</v>
+        <v>10.2171270432708</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>10.10049741895205</v>
+        <v>10.12461492737481</v>
       </c>
       <c r="C231">
-        <v>10.13038276916337</v>
+        <v>10.81985151576038</v>
       </c>
       <c r="D231">
-        <v>10.51862948192663</v>
+        <v>11.21118429337835</v>
       </c>
       <c r="E231">
-        <v>10.70094886723321</v>
+        <v>10.11989968672654</v>
       </c>
       <c r="F231">
-        <v>10.15236540906221</v>
+        <v>10.14089997827699</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>10.02460680949391</v>
+        <v>10.0495727613742</v>
       </c>
       <c r="C232">
-        <v>10.05435512877661</v>
+        <v>10.75185470097023</v>
       </c>
       <c r="D232">
-        <v>10.44374677203046</v>
+        <v>11.13887636989342</v>
       </c>
       <c r="E232">
-        <v>10.6278205457707</v>
+        <v>10.04392300205617</v>
       </c>
       <c r="F232">
-        <v>10.07704559725068</v>
+        <v>10.06473902252762</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>9.948782637112991</v>
+        <v>9.974595574438959</v>
       </c>
       <c r="C233">
-        <v>9.978394023734232</v>
+        <v>10.68388040902599</v>
       </c>
       <c r="D233">
-        <v>10.36889797867265</v>
+        <v>11.06655466636575</v>
       </c>
       <c r="E233">
-        <v>10.5546828675655</v>
+        <v>9.968012722510654</v>
       </c>
       <c r="F233">
-        <v>10.00178494838309</v>
+        <v>9.988644611956191</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>9.87302527499512</v>
+        <v>9.89968378973059</v>
       </c>
       <c r="C234">
-        <v>9.902499864172624</v>
+        <v>10.61593149073986</v>
       </c>
       <c r="D234">
-        <v>10.29408496298488</v>
+        <v>10.99422161672446</v>
       </c>
       <c r="E234">
-        <v>10.48153875524811</v>
+        <v>9.892169251672875</v>
       </c>
       <c r="F234">
-        <v>9.926584129304523</v>
+        <v>9.912617122662995</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>9.7973351033864</v>
+        <v>9.824837816347717</v>
       </c>
       <c r="C235">
-        <v>9.826673031286496</v>
+        <v>10.54801072263154</v>
       </c>
       <c r="D235">
-        <v>10.2193095278986</v>
+        <v>10.9218795780458</v>
       </c>
       <c r="E235">
-        <v>10.40839103855033</v>
+        <v>9.816392970801539</v>
       </c>
       <c r="F235">
-        <v>9.851443768162738</v>
+        <v>9.836656949825864</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>9.721712484838683</v>
+        <v>9.750058038289417</v>
       </c>
       <c r="C236">
-        <v>9.750913876003967</v>
+        <v>10.4801208136621</v>
       </c>
       <c r="D236">
-        <v>10.14457341284222</v>
+        <v>10.8495308337993</v>
       </c>
       <c r="E236">
-        <v>10.33524245844932</v>
+        <v>9.740684232181197</v>
       </c>
       <c r="F236">
-        <v>9.776364467194732</v>
+        <v>9.760764453679915</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>9.646157758480673</v>
+        <v>9.675344812326662</v>
       </c>
       <c r="C237">
-        <v>9.675222725670713</v>
+        <v>10.41226440143938</v>
       </c>
       <c r="D237">
-        <v>10.06987829668493</v>
+        <v>10.77717760450421</v>
       </c>
       <c r="E237">
-        <v>10.26209566649021</v>
+        <v>9.665043363614659</v>
       </c>
       <c r="F237">
-        <v>9.701346797276221</v>
+        <v>9.684939973021251</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>9.570671219384147</v>
+        <v>9.600698478416932</v>
       </c>
       <c r="C238">
-        <v>9.59959989940165</v>
+        <v>10.34444405525734</v>
       </c>
       <c r="D238">
-        <v>9.995225805839135</v>
+        <v>10.7048220415387</v>
       </c>
       <c r="E238">
-        <v>10.18895323658811</v>
+        <v>9.589470690463113</v>
       </c>
       <c r="F238">
-        <v>9.626391296270066</v>
+        <v>9.609183810435292</v>
       </c>
     </row>
   </sheetData>
